--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_25_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1035263.189809668</v>
+        <v>-1035896.401665798</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5808968.500444944</v>
+        <v>5808968.500444943</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.42873756868511</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>42.49402539587322</v>
+        <v>38.45009570676037</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>16.75585940079478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.779624543948363</v>
+        <v>2.779624543948362</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>24.71680785700309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.2415872493675</v>
+        <v>10.24158724936751</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="V13" t="n">
         <v>19.67282821445593</v>
       </c>
       <c r="W13" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>12.71192971168198</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>38.45009570675975</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.75585940079469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.779624543948362</v>
+        <v>2.779624543948284</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.71680785700309</v>
+        <v>24.71680785700303</v>
       </c>
       <c r="V14" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="X14" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.79296200847288</v>
+        <v>11.79296200847282</v>
       </c>
       <c r="V15" t="n">
-        <v>15.21273394540827</v>
+        <v>15.21273394540822</v>
       </c>
       <c r="W15" t="n">
-        <v>41.26839660701762</v>
+        <v>41.26839660701756</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.24158724936751</v>
+        <v>10.24158724936745</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="V16" t="n">
-        <v>19.67282821445593</v>
+        <v>19.67282821445588</v>
       </c>
       <c r="W16" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25.24153454356025</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.30903355541193</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>33.58244823586926</v>
       </c>
       <c r="F17" t="n">
-        <v>42.49402539587322</v>
+        <v>15.13689487744709</v>
       </c>
       <c r="G17" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.438999912589679</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.71411179097458</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>12.30903355541193</v>
@@ -2090,10 +2090,10 @@
         <v>33.58244823586926</v>
       </c>
       <c r="F20" t="n">
-        <v>42.49402539587322</v>
+        <v>2.827861322035136</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="H20" t="n">
         <v>9.438999912589679</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>21.88625046893924</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
     </row>
     <row r="21">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.2320734133372</v>
+        <v>137.2320734133373</v>
       </c>
       <c r="C26" t="n">
-        <v>113.3503304166827</v>
+        <v>113.3503304166828</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9169926777312</v>
+        <v>100.9169926777313</v>
       </c>
       <c r="E26" t="n">
-        <v>134.62374509714</v>
+        <v>134.6237450971401</v>
       </c>
       <c r="F26" t="n">
-        <v>166.3440826755174</v>
+        <v>166.3440826755175</v>
       </c>
       <c r="G26" t="n">
-        <v>182.0136726774939</v>
+        <v>182.013672677494</v>
       </c>
       <c r="H26" t="n">
-        <v>110.4802967738605</v>
+        <v>110.4802967738606</v>
       </c>
       <c r="I26" t="n">
-        <v>5.33687940629261</v>
+        <v>5.336879406292695</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>13.29782786250096</v>
+        <v>13.29782786250104</v>
       </c>
       <c r="V26" t="n">
-        <v>84.02461664465591</v>
+        <v>84.02461664465599</v>
       </c>
       <c r="W26" t="n">
-        <v>101.0412968612708</v>
+        <v>101.0412968612709</v>
       </c>
       <c r="X26" t="n">
-        <v>122.92754733021</v>
+        <v>122.9275473302101</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.4304004539538</v>
+        <v>145.4304004539539</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3739820139707371</v>
+        <v>0.3739820139708224</v>
       </c>
       <c r="V27" t="n">
-        <v>3.793753950906137</v>
+        <v>3.793753950906222</v>
       </c>
       <c r="W27" t="n">
-        <v>29.84941661251548</v>
+        <v>29.84941661251557</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>51.80214033224846</v>
+        <v>51.80214033224855</v>
       </c>
       <c r="V28" t="n">
-        <v>8.253848219953795</v>
+        <v>8.253848219953881</v>
       </c>
       <c r="W28" t="n">
-        <v>53.45554012483922</v>
+        <v>53.4555401248393</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>137.2320734133372</v>
+        <v>137.2320734133373</v>
       </c>
       <c r="C29" t="n">
-        <v>113.3503304166827</v>
+        <v>113.3503304166828</v>
       </c>
       <c r="D29" t="n">
-        <v>100.9169926777312</v>
+        <v>100.9169926777313</v>
       </c>
       <c r="E29" t="n">
-        <v>134.62374509714</v>
+        <v>134.6237450971401</v>
       </c>
       <c r="F29" t="n">
-        <v>166.3440826755174</v>
+        <v>166.3440826755175</v>
       </c>
       <c r="G29" t="n">
-        <v>182.0136726774939</v>
+        <v>182.013672677494</v>
       </c>
       <c r="H29" t="n">
-        <v>110.4802967738605</v>
+        <v>110.4802967738606</v>
       </c>
       <c r="I29" t="n">
-        <v>5.33687940629261</v>
+        <v>5.336879406292695</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>13.29782786250096</v>
+        <v>13.29782786250104</v>
       </c>
       <c r="V29" t="n">
-        <v>84.02461664465591</v>
+        <v>84.02461664465599</v>
       </c>
       <c r="W29" t="n">
-        <v>101.0412968612708</v>
+        <v>101.0412968612709</v>
       </c>
       <c r="X29" t="n">
-        <v>122.92754733021</v>
+        <v>122.9275473302101</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.4304004539538</v>
+        <v>145.4304004539539</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.3739820139707371</v>
+        <v>0.3739820139708224</v>
       </c>
       <c r="V30" t="n">
-        <v>3.793753950906137</v>
+        <v>3.793753950906222</v>
       </c>
       <c r="W30" t="n">
-        <v>29.84941661251548</v>
+        <v>29.84941661251557</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.80214033224846</v>
+        <v>51.80214033224855</v>
       </c>
       <c r="V31" t="n">
-        <v>8.253848219953795</v>
+        <v>8.253848219953881</v>
       </c>
       <c r="W31" t="n">
-        <v>53.45554012483922</v>
+        <v>53.4555401248393</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>100.9169926777312</v>
       </c>
       <c r="E32" t="n">
-        <v>134.62374509714</v>
+        <v>134.6237450971401</v>
       </c>
       <c r="F32" t="n">
         <v>166.3440826755174</v>
@@ -3047,7 +3047,7 @@
         <v>110.4802967738605</v>
       </c>
       <c r="I32" t="n">
-        <v>5.33687940629261</v>
+        <v>5.336879406292638</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>13.29782786250095</v>
+        <v>13.29782786250098</v>
       </c>
       <c r="V32" t="n">
-        <v>84.02461664465591</v>
+        <v>84.02461664465594</v>
       </c>
       <c r="W32" t="n">
         <v>101.0412968612708</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3739820139707371</v>
+        <v>0.3739820139707655</v>
       </c>
       <c r="V33" t="n">
-        <v>3.793753950906137</v>
+        <v>3.793753950906165</v>
       </c>
       <c r="W33" t="n">
-        <v>29.84941661251548</v>
+        <v>29.84941661251551</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>51.80214033224846</v>
+        <v>51.80214033224849</v>
       </c>
       <c r="V34" t="n">
-        <v>8.253848219953795</v>
+        <v>8.253848219953824</v>
       </c>
       <c r="W34" t="n">
-        <v>53.45554012483922</v>
+        <v>53.45554012483925</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>123.9342455508362</v>
+        <v>123.9342455508363</v>
       </c>
       <c r="C35" t="n">
-        <v>100.0525025541817</v>
+        <v>100.0525025541818</v>
       </c>
       <c r="D35" t="n">
-        <v>87.61916481523014</v>
+        <v>87.61916481523022</v>
       </c>
       <c r="E35" t="n">
-        <v>121.325917234639</v>
+        <v>121.3259172346391</v>
       </c>
       <c r="F35" t="n">
-        <v>153.0462548130163</v>
+        <v>153.0462548130164</v>
       </c>
       <c r="G35" t="n">
-        <v>168.7158448149929</v>
+        <v>168.715844814993</v>
       </c>
       <c r="H35" t="n">
-        <v>97.18246891135942</v>
+        <v>97.18246891135951</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>70.72678878215487</v>
+        <v>70.72678878215496</v>
       </c>
       <c r="W35" t="n">
-        <v>87.74346899876974</v>
+        <v>87.74346899876983</v>
       </c>
       <c r="X35" t="n">
-        <v>109.629719467709</v>
+        <v>109.6297194677091</v>
       </c>
       <c r="Y35" t="n">
-        <v>132.1325725914527</v>
+        <v>132.1325725914528</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>16.55158875001445</v>
+        <v>16.55158875001453</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>38.50431246974743</v>
+        <v>38.50431246974751</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.15771226233818</v>
+        <v>40.15771226233826</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>100.0525025541817</v>
       </c>
       <c r="D38" t="n">
-        <v>87.61916481523014</v>
+        <v>87.61916481523019</v>
       </c>
       <c r="E38" t="n">
-        <v>121.325917234639</v>
+        <v>121.3259172346391</v>
       </c>
       <c r="F38" t="n">
-        <v>153.0462548130163</v>
+        <v>153.0462548130164</v>
       </c>
       <c r="G38" t="n">
         <v>168.7158448149929</v>
       </c>
       <c r="H38" t="n">
-        <v>97.18246891135942</v>
+        <v>97.18246891135948</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.72678878215487</v>
+        <v>70.72678878215493</v>
       </c>
       <c r="W38" t="n">
-        <v>87.74346899876974</v>
+        <v>87.7434689987698</v>
       </c>
       <c r="X38" t="n">
         <v>109.629719467709</v>
       </c>
       <c r="Y38" t="n">
-        <v>132.1325725914527</v>
+        <v>132.1325725914528</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>16.55158875001445</v>
+        <v>16.5515887500145</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>38.50431246974743</v>
+        <v>38.50431246974748</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.15771226233818</v>
+        <v>40.15771226233824</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>123.9342455508362</v>
       </c>
       <c r="C41" t="n">
-        <v>100.0525025541816</v>
+        <v>100.0525025541817</v>
       </c>
       <c r="D41" t="n">
-        <v>87.61916481523011</v>
+        <v>87.61916481523014</v>
       </c>
       <c r="E41" t="n">
         <v>121.325917234639</v>
@@ -3755,7 +3755,7 @@
         <v>168.7158448149929</v>
       </c>
       <c r="H41" t="n">
-        <v>97.18246891135939</v>
+        <v>97.18246891135942</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>70.72678878215484</v>
+        <v>70.72678878215487</v>
       </c>
       <c r="W41" t="n">
-        <v>87.74346899876971</v>
+        <v>87.74346899876974</v>
       </c>
       <c r="X41" t="n">
         <v>109.629719467709</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>16.55158875001442</v>
+        <v>16.55158875001445</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.5043124697474</v>
+        <v>38.50431246974743</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>40.15771226233815</v>
+        <v>40.15771226233818</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>123.9342455508362</v>
+        <v>123.9342455508363</v>
       </c>
       <c r="C44" t="n">
-        <v>100.0525025541816</v>
+        <v>100.0525025541818</v>
       </c>
       <c r="D44" t="n">
-        <v>87.61916481523011</v>
+        <v>87.61916481523022</v>
       </c>
       <c r="E44" t="n">
-        <v>121.325917234639</v>
+        <v>121.3259172346391</v>
       </c>
       <c r="F44" t="n">
-        <v>153.0462548130163</v>
+        <v>153.0462548130164</v>
       </c>
       <c r="G44" t="n">
         <v>168.7158448149929</v>
       </c>
       <c r="H44" t="n">
-        <v>97.18246891135939</v>
+        <v>97.18246891135951</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>70.72678878215484</v>
+        <v>70.72678878215496</v>
       </c>
       <c r="W44" t="n">
-        <v>87.74346899876971</v>
+        <v>87.74346899876983</v>
       </c>
       <c r="X44" t="n">
-        <v>109.629719467709</v>
+        <v>109.6297194677091</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.1325725914527</v>
+        <v>132.1325725914528</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>16.55158875001442</v>
+        <v>16.55158875001453</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.5043124697474</v>
+        <v>38.50431246974751</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>40.15771226233815</v>
+        <v>40.15771226233826</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.2460379829289</v>
+        <v>102.0863710250318</v>
       </c>
       <c r="C11" t="n">
-        <v>89.2460379829289</v>
+        <v>102.0863710250318</v>
       </c>
       <c r="D11" t="n">
-        <v>89.2460379829289</v>
+        <v>102.0863710250318</v>
       </c>
       <c r="E11" t="n">
-        <v>46.32278000729938</v>
+        <v>63.24789051315263</v>
       </c>
       <c r="F11" t="n">
-        <v>46.32278000729938</v>
+        <v>63.24789051315263</v>
       </c>
       <c r="G11" t="n">
-        <v>46.32278000729938</v>
+        <v>63.24789051315263</v>
       </c>
       <c r="H11" t="n">
-        <v>3.399522031669858</v>
+        <v>20.32463253752317</v>
       </c>
       <c r="I11" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="J11" t="n">
-        <v>39.51191567682509</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="K11" t="n">
-        <v>39.51191567682509</v>
+        <v>87.5376923154987</v>
       </c>
       <c r="L11" t="n">
-        <v>39.51191567682509</v>
+        <v>87.5376923154987</v>
       </c>
       <c r="M11" t="n">
-        <v>81.58100081873958</v>
+        <v>87.5376923154987</v>
       </c>
       <c r="N11" t="n">
-        <v>99.56502340805037</v>
+        <v>87.5376923154987</v>
       </c>
       <c r="O11" t="n">
-        <v>141.6341085499648</v>
+        <v>129.6067774574131</v>
       </c>
       <c r="P11" t="n">
-        <v>141.6341085499648</v>
+        <v>129.6067774574131</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6341085499648</v>
+        <v>141.6341085499647</v>
       </c>
       <c r="R11" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="S11" t="n">
-        <v>167.1684000239491</v>
+        <v>167.1684000239488</v>
       </c>
       <c r="T11" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="U11" t="n">
-        <v>169.9761015834929</v>
+        <v>145.0096290006612</v>
       </c>
       <c r="V11" t="n">
-        <v>169.9761015834929</v>
+        <v>145.0096290006612</v>
       </c>
       <c r="W11" t="n">
-        <v>169.9761015834929</v>
+        <v>145.0096290006612</v>
       </c>
       <c r="X11" t="n">
-        <v>127.0528436078634</v>
+        <v>102.0863710250318</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.0528436078634</v>
+        <v>102.0863710250318</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.0123717239992</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="C12" t="n">
-        <v>101.0123717239992</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="D12" t="n">
-        <v>101.0123717239992</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="E12" t="n">
-        <v>101.0123717239992</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="F12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="G12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="H12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="I12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="J12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="K12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="L12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="M12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="N12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="O12" t="n">
-        <v>143.0814568659137</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="P12" t="n">
-        <v>169.9761015834929</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="Q12" t="n">
-        <v>169.9761015834929</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="R12" t="n">
-        <v>169.9761015834929</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="S12" t="n">
-        <v>169.9761015834929</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="T12" t="n">
-        <v>169.9761015834929</v>
+        <v>72.36325189116357</v>
       </c>
       <c r="U12" t="n">
-        <v>158.0640187466516</v>
+        <v>60.45116905432228</v>
       </c>
       <c r="V12" t="n">
-        <v>142.6976208219968</v>
+        <v>45.08477112966745</v>
       </c>
       <c r="W12" t="n">
-        <v>101.0123717239992</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="X12" t="n">
-        <v>101.0123717239992</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Y12" t="n">
-        <v>101.0123717239992</v>
+        <v>3.399522031669853</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.95017141971827</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="C13" t="n">
-        <v>48.95017141971827</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="D13" t="n">
-        <v>48.95017141971827</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="E13" t="n">
-        <v>48.95017141971827</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="F13" t="n">
-        <v>48.95017141971827</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="G13" t="n">
-        <v>77.39353411760376</v>
+        <v>12.5509264588535</v>
       </c>
       <c r="H13" t="n">
-        <v>77.39353411760376</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="I13" t="n">
-        <v>77.39353411760376</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="J13" t="n">
-        <v>77.39353411760376</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="K13" t="n">
-        <v>77.39353411760376</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="L13" t="n">
-        <v>77.39353411760376</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="M13" t="n">
-        <v>77.39353411760376</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="N13" t="n">
-        <v>119.4626192595182</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="O13" t="n">
-        <v>119.4626192595182</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="P13" t="n">
-        <v>119.4626192595182</v>
+        <v>54.62001160076792</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.4626192595182</v>
+        <v>96.68909674268235</v>
       </c>
       <c r="R13" t="n">
-        <v>119.4626192595182</v>
+        <v>117.862924975323</v>
       </c>
       <c r="S13" t="n">
-        <v>109.1175816338945</v>
+        <v>107.5178873496992</v>
       </c>
       <c r="T13" t="n">
-        <v>109.1175816338945</v>
+        <v>109.1175816338943</v>
       </c>
       <c r="U13" t="n">
-        <v>66.19432365826498</v>
+        <v>66.19432365826489</v>
       </c>
       <c r="V13" t="n">
-        <v>46.32278000729938</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="W13" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="X13" t="n">
-        <v>6.881086277803785</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.881086277803785</v>
+        <v>3.399522031669853</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.23985507377294</v>
+        <v>102.0863710250319</v>
       </c>
       <c r="C14" t="n">
-        <v>3.399522031669858</v>
+        <v>102.0863710250319</v>
       </c>
       <c r="D14" t="n">
-        <v>3.399522031669858</v>
+        <v>102.0863710250319</v>
       </c>
       <c r="E14" t="n">
-        <v>3.399522031669858</v>
+        <v>102.0863710250319</v>
       </c>
       <c r="F14" t="n">
-        <v>3.399522031669858</v>
+        <v>59.16311304940248</v>
       </c>
       <c r="G14" t="n">
-        <v>3.399522031669858</v>
+        <v>59.16311304940248</v>
       </c>
       <c r="H14" t="n">
-        <v>3.399522031669858</v>
+        <v>20.32463253752394</v>
       </c>
       <c r="I14" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="J14" t="n">
-        <v>45.46860717358435</v>
+        <v>39.51191567682514</v>
       </c>
       <c r="K14" t="n">
-        <v>45.46860717358435</v>
+        <v>81.58100081873957</v>
       </c>
       <c r="L14" t="n">
-        <v>45.46860717358435</v>
+        <v>81.58100081873957</v>
       </c>
       <c r="M14" t="n">
-        <v>55.80945680117193</v>
+        <v>81.58100081873957</v>
       </c>
       <c r="N14" t="n">
-        <v>70.45970927959178</v>
+        <v>81.58100081873957</v>
       </c>
       <c r="O14" t="n">
-        <v>99.56502340805042</v>
+        <v>81.58100081873957</v>
       </c>
       <c r="P14" t="n">
-        <v>141.6341085499649</v>
+        <v>99.56502340805011</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6341085499649</v>
+        <v>141.6341085499645</v>
       </c>
       <c r="R14" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="S14" t="n">
-        <v>167.1684000239491</v>
+        <v>167.1684000239489</v>
       </c>
       <c r="T14" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834928</v>
       </c>
       <c r="U14" t="n">
-        <v>145.0096290006615</v>
+        <v>145.0096290006614</v>
       </c>
       <c r="V14" t="n">
-        <v>102.086371025032</v>
+        <v>145.0096290006614</v>
       </c>
       <c r="W14" t="n">
-        <v>102.086371025032</v>
+        <v>102.0863710250319</v>
       </c>
       <c r="X14" t="n">
-        <v>59.16311304940246</v>
+        <v>102.0863710250319</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.16311304940246</v>
+        <v>102.0863710250319</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.399522031669858</v>
+        <v>11.44156183688804</v>
       </c>
       <c r="C15" t="n">
-        <v>3.399522031669858</v>
+        <v>11.44156183688804</v>
       </c>
       <c r="D15" t="n">
-        <v>3.81776611327426</v>
+        <v>11.44156183688804</v>
       </c>
       <c r="E15" t="n">
-        <v>3.81776611327426</v>
+        <v>11.44156183688804</v>
       </c>
       <c r="F15" t="n">
-        <v>3.81776611327426</v>
+        <v>11.44156183688804</v>
       </c>
       <c r="G15" t="n">
-        <v>3.81776611327426</v>
+        <v>11.44156183688804</v>
       </c>
       <c r="H15" t="n">
-        <v>3.81776611327426</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="I15" t="n">
-        <v>3.81776611327426</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="J15" t="n">
-        <v>3.81776611327426</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="K15" t="n">
-        <v>39.15803609360632</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="L15" t="n">
-        <v>39.15803609360632</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="M15" t="n">
-        <v>39.15803609360632</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="N15" t="n">
-        <v>39.15803609360632</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="O15" t="n">
-        <v>39.15803609360632</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="P15" t="n">
-        <v>39.15803609360632</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.15803609360632</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="R15" t="n">
-        <v>39.15803609360632</v>
+        <v>39.15803609360608</v>
       </c>
       <c r="S15" t="n">
-        <v>72.36325189116357</v>
+        <v>72.3632518911634</v>
       </c>
       <c r="T15" t="n">
-        <v>72.36325189116357</v>
+        <v>72.3632518911634</v>
       </c>
       <c r="U15" t="n">
-        <v>60.45116905432228</v>
+        <v>60.45116905432216</v>
       </c>
       <c r="V15" t="n">
-        <v>45.08477112966746</v>
+        <v>45.08477112966739</v>
       </c>
       <c r="W15" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="X15" t="n">
-        <v>3.399522031669858</v>
+        <v>11.44156183688804</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.399522031669858</v>
+        <v>11.44156183688804</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.399522031669858</v>
+        <v>11.61148704593721</v>
       </c>
       <c r="C16" t="n">
-        <v>3.399522031669858</v>
+        <v>53.68057218785164</v>
       </c>
       <c r="D16" t="n">
-        <v>3.399522031669858</v>
+        <v>53.68057218785164</v>
       </c>
       <c r="E16" t="n">
-        <v>3.399522031669858</v>
+        <v>53.68057218785164</v>
       </c>
       <c r="F16" t="n">
-        <v>3.399522031669858</v>
+        <v>53.68057218785164</v>
       </c>
       <c r="G16" t="n">
-        <v>3.399522031669858</v>
+        <v>53.68057218785164</v>
       </c>
       <c r="H16" t="n">
-        <v>45.46860717358435</v>
+        <v>95.74965732976607</v>
       </c>
       <c r="I16" t="n">
-        <v>87.53769231549884</v>
+        <v>95.74965732976607</v>
       </c>
       <c r="J16" t="n">
-        <v>87.53769231549884</v>
+        <v>98.28879102687728</v>
       </c>
       <c r="K16" t="n">
-        <v>87.53769231549884</v>
+        <v>98.28879102687728</v>
       </c>
       <c r="L16" t="n">
-        <v>87.53769231549884</v>
+        <v>98.28879102687728</v>
       </c>
       <c r="M16" t="n">
-        <v>87.53769231549884</v>
+        <v>98.28879102687728</v>
       </c>
       <c r="N16" t="n">
-        <v>119.4626192595182</v>
+        <v>98.28879102687728</v>
       </c>
       <c r="O16" t="n">
-        <v>119.4626192595182</v>
+        <v>98.28879102687728</v>
       </c>
       <c r="P16" t="n">
-        <v>119.4626192595182</v>
+        <v>98.28879102687728</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.4626192595182</v>
+        <v>98.28879102687728</v>
       </c>
       <c r="R16" t="n">
-        <v>119.4626192595182</v>
+        <v>119.462619259518</v>
       </c>
       <c r="S16" t="n">
-        <v>109.1175816338945</v>
+        <v>109.1175816338943</v>
       </c>
       <c r="T16" t="n">
-        <v>109.1175816338945</v>
+        <v>109.1175816338943</v>
       </c>
       <c r="U16" t="n">
-        <v>66.19432365826498</v>
+        <v>66.19432365826484</v>
       </c>
       <c r="V16" t="n">
-        <v>46.32278000729938</v>
+        <v>46.32278000729931</v>
       </c>
       <c r="W16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="X16" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.399522031669858</v>
+        <v>11.61148704593721</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.5563440689136</v>
+        <v>104.9455199018639</v>
       </c>
       <c r="C17" t="n">
-        <v>89.12297684122473</v>
+        <v>104.9455199018639</v>
       </c>
       <c r="D17" t="n">
-        <v>89.2460379829289</v>
+        <v>105.0685810435681</v>
       </c>
       <c r="E17" t="n">
-        <v>89.2460379829289</v>
+        <v>71.14691615885165</v>
       </c>
       <c r="F17" t="n">
-        <v>46.32278000729938</v>
+        <v>55.85712335334954</v>
       </c>
       <c r="G17" t="n">
-        <v>3.399522031669858</v>
+        <v>12.93386537772004</v>
       </c>
       <c r="H17" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="I17" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="J17" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="K17" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="L17" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="M17" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="N17" t="n">
-        <v>3.399522031669858</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="O17" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="P17" t="n">
-        <v>45.46860717358435</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.53769231549884</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="R17" t="n">
-        <v>129.6067774574133</v>
+        <v>45.46860717358428</v>
       </c>
       <c r="S17" t="n">
-        <v>129.6067774574133</v>
+        <v>68.99141788521507</v>
       </c>
       <c r="T17" t="n">
-        <v>169.9761015834929</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="U17" t="n">
-        <v>169.9761015834929</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="V17" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="W17" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="X17" t="n">
-        <v>169.9761015834929</v>
+        <v>147.8687778774934</v>
       </c>
       <c r="Y17" t="n">
-        <v>127.0528436078634</v>
+        <v>104.9455199018639</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="C18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="D18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="E18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="F18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="G18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="H18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="I18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="J18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="K18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="L18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="M18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="N18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="O18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="P18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="R18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="S18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="T18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="U18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="V18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="W18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="X18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="C19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="D19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="E19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="F19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="G19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="H19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="I19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="J19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="K19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="L19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="M19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="N19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="O19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="P19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="R19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="S19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="T19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="U19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="V19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="W19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="X19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>102.0890943240507</v>
+        <v>104.9455199018639</v>
       </c>
       <c r="C20" t="n">
-        <v>89.65572709636186</v>
+        <v>92.51215267417511</v>
       </c>
       <c r="D20" t="n">
-        <v>89.77878823806608</v>
+        <v>92.63521381587928</v>
       </c>
       <c r="E20" t="n">
-        <v>55.85712335334964</v>
+        <v>58.71354893116283</v>
       </c>
       <c r="F20" t="n">
-        <v>12.93386537772004</v>
+        <v>55.85712335334956</v>
       </c>
       <c r="G20" t="n">
         <v>12.93386537772004</v>
       </c>
       <c r="H20" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="I20" t="n">
-        <v>3.399522031669858</v>
+        <v>26.92233274330064</v>
       </c>
       <c r="J20" t="n">
-        <v>43.76884615774943</v>
+        <v>26.92233274330064</v>
       </c>
       <c r="K20" t="n">
-        <v>43.76884615774943</v>
+        <v>26.92233274330064</v>
       </c>
       <c r="L20" t="n">
-        <v>43.76884615774943</v>
+        <v>68.99141788521507</v>
       </c>
       <c r="M20" t="n">
-        <v>85.83793129966392</v>
+        <v>111.0605030271295</v>
       </c>
       <c r="N20" t="n">
-        <v>85.83793129966392</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="O20" t="n">
-        <v>85.83793129966392</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="P20" t="n">
-        <v>85.83793129966392</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="Q20" t="n">
-        <v>85.83793129966392</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="R20" t="n">
-        <v>85.83793129966392</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="S20" t="n">
-        <v>127.9070164415784</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="T20" t="n">
-        <v>169.9761015834929</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="U20" t="n">
-        <v>169.9761015834929</v>
+        <v>153.1295881690439</v>
       </c>
       <c r="V20" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="W20" t="n">
-        <v>169.9761015834929</v>
+        <v>169.9761015834926</v>
       </c>
       <c r="X20" t="n">
-        <v>169.9761015834929</v>
+        <v>147.8687778774934</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.0528436078634</v>
+        <v>104.9455199018639</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="C21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="D21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="E21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="F21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="G21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="H21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="I21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="J21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="K21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="L21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="M21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="N21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="O21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="P21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="R21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="S21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="T21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="U21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="V21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="W21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="X21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="C22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="D22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="E22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="F22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="G22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="H22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="I22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="J22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="K22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="L22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="M22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="N22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="O22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="P22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="R22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="S22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="T22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="U22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="V22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="W22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="X22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.399522031669858</v>
+        <v>3.399522031669853</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>6.192101294127167</v>
       </c>
       <c r="I23" t="n">
-        <v>6.192101294127167</v>
+        <v>82.81935480895086</v>
       </c>
       <c r="J23" t="n">
         <v>82.81935480895086</v>
@@ -5993,34 +5993,34 @@
         <v>82.81935480895086</v>
       </c>
       <c r="L23" t="n">
-        <v>82.81935480895086</v>
+        <v>139.5040442622623</v>
       </c>
       <c r="M23" t="n">
-        <v>159.4466083237746</v>
+        <v>139.5040442622623</v>
       </c>
       <c r="N23" t="n">
-        <v>159.4466083237746</v>
+        <v>216.1312977770859</v>
       </c>
       <c r="O23" t="n">
-        <v>232.9778111915347</v>
+        <v>216.1312977770859</v>
       </c>
       <c r="P23" t="n">
-        <v>232.9778111915347</v>
+        <v>216.1312977770859</v>
       </c>
       <c r="Q23" t="n">
-        <v>232.9778111915347</v>
+        <v>216.1312977770859</v>
       </c>
       <c r="R23" t="n">
-        <v>232.9778111915347</v>
+        <v>216.1312977770859</v>
       </c>
       <c r="S23" t="n">
-        <v>309.6050647063583</v>
+        <v>216.1312977770859</v>
       </c>
       <c r="T23" t="n">
-        <v>309.6050647063583</v>
+        <v>216.1312977770859</v>
       </c>
       <c r="U23" t="n">
-        <v>309.6050647063583</v>
+        <v>292.7585512919096</v>
       </c>
       <c r="V23" t="n">
         <v>309.6050647063583</v>
@@ -6203,64 +6203,64 @@
         <v>850.4896670542537</v>
       </c>
       <c r="C26" t="n">
-        <v>735.994383805079</v>
+        <v>735.9943838050791</v>
       </c>
       <c r="D26" t="n">
-        <v>634.0580275649464</v>
+        <v>634.0580275649465</v>
       </c>
       <c r="E26" t="n">
         <v>498.0744466587444</v>
       </c>
       <c r="F26" t="n">
-        <v>330.0501207238783</v>
+        <v>330.0501207238782</v>
       </c>
       <c r="G26" t="n">
-        <v>146.1979261001471</v>
+        <v>146.1979261001468</v>
       </c>
       <c r="H26" t="n">
-        <v>34.60166673261153</v>
+        <v>34.60166673261163</v>
       </c>
       <c r="I26" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J26" t="n">
-        <v>185.1069238584292</v>
+        <v>185.1069238584291</v>
       </c>
       <c r="K26" t="n">
-        <v>203.0912199466887</v>
+        <v>409.0717114822804</v>
       </c>
       <c r="L26" t="n">
-        <v>479.5076400421201</v>
+        <v>685.4881315777118</v>
       </c>
       <c r="M26" t="n">
-        <v>555.0385865757357</v>
+        <v>761.0190781113274</v>
       </c>
       <c r="N26" t="n">
-        <v>859.4358820672953</v>
+        <v>1065.416373602887</v>
       </c>
       <c r="O26" t="n">
-        <v>1123.027811490605</v>
+        <v>1300.952417679808</v>
       </c>
       <c r="P26" t="n">
-        <v>1338.20756640345</v>
+        <v>1300.952417679808</v>
       </c>
       <c r="Q26" t="n">
-        <v>1460.543972676404</v>
+        <v>1437.878519026256</v>
       </c>
       <c r="R26" t="n">
-        <v>1460.543972676404</v>
+        <v>1437.878519026256</v>
       </c>
       <c r="S26" t="n">
-        <v>1460.543972676404</v>
+        <v>1446.431480922304</v>
       </c>
       <c r="T26" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="U26" t="n">
-        <v>1447.111823320342</v>
+        <v>1447.111823320343</v>
       </c>
       <c r="V26" t="n">
-        <v>1362.238473174225</v>
+        <v>1362.238473174226</v>
       </c>
       <c r="W26" t="n">
         <v>1260.17655715274</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G27" t="n">
-        <v>63.57163963271228</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H27" t="n">
-        <v>63.57163963271228</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I27" t="n">
-        <v>63.57163963271228</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J27" t="n">
-        <v>63.57163963271228</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K27" t="n">
-        <v>63.57163963271228</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L27" t="n">
-        <v>63.57163963271228</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="M27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="N27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="O27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="P27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="R27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="S27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="T27" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="U27" t="n">
-        <v>63.19388002264083</v>
+        <v>63.19388002264101</v>
       </c>
       <c r="V27" t="n">
-        <v>59.36180532475584</v>
+        <v>59.36180532475594</v>
       </c>
       <c r="W27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G28" t="n">
-        <v>29.21087945352808</v>
+        <v>96.67010911404991</v>
       </c>
       <c r="H28" t="n">
-        <v>29.21087945352808</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="I28" t="n">
-        <v>29.21087945352808</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="J28" t="n">
-        <v>29.21087945352808</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="K28" t="n">
-        <v>29.21087945352808</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="L28" t="n">
-        <v>125.6117330683298</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="M28" t="n">
-        <v>125.6117330683298</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="N28" t="n">
-        <v>125.6117330683298</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="O28" t="n">
-        <v>125.6117330683298</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="P28" t="n">
-        <v>125.6117330683298</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="Q28" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="R28" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="S28" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="T28" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="U28" t="n">
-        <v>91.543594953319</v>
+        <v>91.54359495331919</v>
       </c>
       <c r="V28" t="n">
-        <v>83.20637452912325</v>
+        <v>83.20637452912335</v>
       </c>
       <c r="W28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="29">
@@ -6440,64 +6440,64 @@
         <v>850.4896670542537</v>
       </c>
       <c r="C29" t="n">
-        <v>735.9943838050792</v>
+        <v>735.9943838050791</v>
       </c>
       <c r="D29" t="n">
-        <v>634.0580275649468</v>
+        <v>634.0580275649465</v>
       </c>
       <c r="E29" t="n">
-        <v>498.0744466587448</v>
+        <v>498.0744466587444</v>
       </c>
       <c r="F29" t="n">
-        <v>330.0501207238792</v>
+        <v>330.0501207238789</v>
       </c>
       <c r="G29" t="n">
-        <v>146.1979261001473</v>
+        <v>146.1979261001475</v>
       </c>
       <c r="H29" t="n">
-        <v>34.60166673261153</v>
+        <v>34.60166673261163</v>
       </c>
       <c r="I29" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J29" t="n">
-        <v>185.1069238584292</v>
+        <v>185.1069238584291</v>
       </c>
       <c r="K29" t="n">
-        <v>409.0717114822806</v>
+        <v>355.2085488135078</v>
       </c>
       <c r="L29" t="n">
-        <v>409.0717114822806</v>
+        <v>631.6249689089391</v>
       </c>
       <c r="M29" t="n">
-        <v>472.6693001477024</v>
+        <v>707.1559154425547</v>
       </c>
       <c r="N29" t="n">
-        <v>777.066595639262</v>
+        <v>1011.553210934114</v>
       </c>
       <c r="O29" t="n">
-        <v>1040.658525062572</v>
+        <v>1040.658525062573</v>
       </c>
       <c r="P29" t="n">
-        <v>1255.838279975417</v>
+        <v>1255.838279975418</v>
       </c>
       <c r="Q29" t="n">
-        <v>1398.23173579817</v>
+        <v>1398.231735798171</v>
       </c>
       <c r="R29" t="n">
-        <v>1437.878519026255</v>
+        <v>1437.878519026256</v>
       </c>
       <c r="S29" t="n">
-        <v>1446.431480922303</v>
+        <v>1446.431480922304</v>
       </c>
       <c r="T29" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="U29" t="n">
-        <v>1447.111823320342</v>
+        <v>1447.111823320343</v>
       </c>
       <c r="V29" t="n">
-        <v>1362.238473174225</v>
+        <v>1362.238473174226</v>
       </c>
       <c r="W29" t="n">
         <v>1260.17655715274</v>
@@ -6506,7 +6506,7 @@
         <v>1136.007317425255</v>
       </c>
       <c r="Y29" t="n">
-        <v>989.1079230273216</v>
+        <v>989.1079230273217</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C30" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="D30" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="E30" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="F30" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="G30" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="H30" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="I30" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="J30" t="n">
-        <v>29.21087945352808</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="K30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="L30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="M30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="N30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="O30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="P30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="R30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="S30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="T30" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271255</v>
       </c>
       <c r="U30" t="n">
-        <v>63.19388002264083</v>
+        <v>63.19388002264101</v>
       </c>
       <c r="V30" t="n">
-        <v>59.36180532475584</v>
+        <v>59.36180532475594</v>
       </c>
       <c r="W30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J31" t="n">
-        <v>129.2213582586842</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K31" t="n">
-        <v>129.2213582586842</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="L31" t="n">
-        <v>129.2213582586842</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="M31" t="n">
-        <v>129.2213582586842</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="N31" t="n">
-        <v>129.2213582586842</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="O31" t="n">
-        <v>129.2213582586842</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="P31" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="Q31" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="R31" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="S31" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283177</v>
       </c>
       <c r="U31" t="n">
-        <v>91.543594953319</v>
+        <v>91.54359495331919</v>
       </c>
       <c r="V31" t="n">
-        <v>83.20637452912325</v>
+        <v>83.20637452912335</v>
       </c>
       <c r="W31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>850.4896670542532</v>
+        <v>850.4896670542535</v>
       </c>
       <c r="C32" t="n">
-        <v>735.9943838050788</v>
+        <v>735.994383805079</v>
       </c>
       <c r="D32" t="n">
-        <v>634.0580275649463</v>
+        <v>634.0580275649464</v>
       </c>
       <c r="E32" t="n">
-        <v>498.0744466587443</v>
+        <v>498.0744466587444</v>
       </c>
       <c r="F32" t="n">
         <v>330.0501207238783</v>
@@ -6692,43 +6692,43 @@
         <v>146.197926100147</v>
       </c>
       <c r="H32" t="n">
-        <v>34.60166673261153</v>
+        <v>34.60166673261157</v>
       </c>
       <c r="I32" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J32" t="n">
-        <v>29.21087945352808</v>
+        <v>185.1069238584292</v>
       </c>
       <c r="K32" t="n">
-        <v>82.38804902874324</v>
+        <v>189.4740308752004</v>
       </c>
       <c r="L32" t="n">
-        <v>358.8044691241746</v>
+        <v>465.8904509706318</v>
       </c>
       <c r="M32" t="n">
-        <v>668.8220309526414</v>
+        <v>775.9080127990985</v>
       </c>
       <c r="N32" t="n">
-        <v>973.219326444201</v>
+        <v>1080.305308290658</v>
       </c>
       <c r="O32" t="n">
-        <v>1236.811255867511</v>
+        <v>1080.305308290658</v>
       </c>
       <c r="P32" t="n">
-        <v>1451.991010780356</v>
+        <v>1295.485063203503</v>
       </c>
       <c r="Q32" t="n">
-        <v>1451.991010780356</v>
+        <v>1437.878519026256</v>
       </c>
       <c r="R32" t="n">
-        <v>1451.991010780356</v>
+        <v>1437.878519026256</v>
       </c>
       <c r="S32" t="n">
-        <v>1460.543972676404</v>
+        <v>1446.431480922304</v>
       </c>
       <c r="T32" t="n">
-        <v>1460.543972676404</v>
+        <v>1460.543972676405</v>
       </c>
       <c r="U32" t="n">
         <v>1447.111823320342</v>
@@ -6740,10 +6740,10 @@
         <v>1260.176557152739</v>
       </c>
       <c r="X32" t="n">
-        <v>1136.007317425254</v>
+        <v>1136.007317425255</v>
       </c>
       <c r="Y32" t="n">
-        <v>989.1079230273211</v>
+        <v>989.1079230273214</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="C33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="D33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="E33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="F33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="G33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="H33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="I33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="J33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="K33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="L33" t="n">
-        <v>63.57163963271228</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="M33" t="n">
-        <v>63.57163963271228</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="N33" t="n">
-        <v>63.57163963271228</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="O33" t="n">
-        <v>63.57163963271228</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="P33" t="n">
-        <v>63.57163963271228</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.57163963271228</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="R33" t="n">
-        <v>63.57163963271228</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="S33" t="n">
-        <v>63.57163963271228</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="T33" t="n">
-        <v>63.57163963271228</v>
+        <v>63.57163963271238</v>
       </c>
       <c r="U33" t="n">
-        <v>63.19388002264083</v>
+        <v>63.1938800226409</v>
       </c>
       <c r="V33" t="n">
-        <v>59.36180532475584</v>
+        <v>59.36180532475588</v>
       </c>
       <c r="W33" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X33" t="n">
-        <v>29.21087945352808</v>
+        <v>41.9717135829429</v>
       </c>
       <c r="Y33" t="n">
-        <v>42.54705147569386</v>
+        <v>41.9717135829429</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="C34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="D34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="E34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="F34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="G34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="H34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="I34" t="n">
-        <v>100.0835122344484</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="J34" t="n">
-        <v>100.0835122344484</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="K34" t="n">
-        <v>142.7033704106342</v>
+        <v>129.7988859318821</v>
       </c>
       <c r="L34" t="n">
-        <v>142.7033704106342</v>
+        <v>129.7988859318821</v>
       </c>
       <c r="M34" t="n">
-        <v>142.7033704106342</v>
+        <v>129.7988859318821</v>
       </c>
       <c r="N34" t="n">
-        <v>142.7033704106342</v>
+        <v>129.7988859318821</v>
       </c>
       <c r="O34" t="n">
-        <v>142.7033704106342</v>
+        <v>129.7988859318821</v>
       </c>
       <c r="P34" t="n">
-        <v>142.7033704106342</v>
+        <v>129.7988859318821</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.7033704106342</v>
+        <v>129.7988859318821</v>
       </c>
       <c r="R34" t="n">
-        <v>142.7033704106342</v>
+        <v>129.7988859318821</v>
       </c>
       <c r="S34" t="n">
-        <v>143.8689892283174</v>
+        <v>130.9645047495654</v>
       </c>
       <c r="T34" t="n">
-        <v>143.8689892283174</v>
+        <v>143.8689892283176</v>
       </c>
       <c r="U34" t="n">
-        <v>91.543594953319</v>
+        <v>91.54359495331907</v>
       </c>
       <c r="V34" t="n">
-        <v>83.20637452912325</v>
+        <v>83.20637452912329</v>
       </c>
       <c r="W34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="X34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.21087945352808</v>
+        <v>29.21087945352809</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.1064616071305</v>
+        <v>761.1064616071312</v>
       </c>
       <c r="C35" t="n">
-        <v>660.0433277140178</v>
+        <v>660.0433277140183</v>
       </c>
       <c r="D35" t="n">
-        <v>571.5391208299469</v>
+        <v>571.5391208299475</v>
       </c>
       <c r="E35" t="n">
-        <v>448.9876892798065</v>
+        <v>448.987689279807</v>
       </c>
       <c r="F35" t="n">
-        <v>294.3955127010021</v>
+        <v>294.3955127010022</v>
       </c>
       <c r="G35" t="n">
-        <v>123.9754674333324</v>
+        <v>123.9754674333325</v>
       </c>
       <c r="H35" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I35" t="n">
-        <v>25.81135742185822</v>
+        <v>33.6926963935045</v>
       </c>
       <c r="J35" t="n">
-        <v>25.81135742185822</v>
+        <v>202.7535903822815</v>
       </c>
       <c r="K35" t="n">
-        <v>262.9409946295856</v>
+        <v>439.8832275900088</v>
       </c>
       <c r="L35" t="n">
-        <v>284.5842419504881</v>
+        <v>503.3986183703532</v>
       </c>
       <c r="M35" t="n">
-        <v>501.2375751157155</v>
+        <v>503.3986183703532</v>
       </c>
       <c r="N35" t="n">
-        <v>818.7997201911512</v>
+        <v>540.3939644970127</v>
       </c>
       <c r="O35" t="n">
-        <v>1095.556499198337</v>
+        <v>817.1507435041985</v>
       </c>
       <c r="P35" t="n">
-        <v>1290.567871092911</v>
+        <v>1033.202780056421</v>
       </c>
       <c r="Q35" t="n">
-        <v>1290.567871092911</v>
+        <v>1188.76108546305</v>
       </c>
       <c r="R35" t="n">
-        <v>1290.567871092911</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.567871092911</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T35" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="U35" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="V35" t="n">
-        <v>1219.126670302855</v>
+        <v>1219.126670302857</v>
       </c>
       <c r="W35" t="n">
-        <v>1130.496903637431</v>
+        <v>1130.496903637433</v>
       </c>
       <c r="X35" t="n">
-        <v>1019.759813266008</v>
+        <v>1019.759813266009</v>
       </c>
       <c r="Y35" t="n">
-        <v>886.2925682241367</v>
+        <v>886.2925682241375</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J36" t="n">
-        <v>42.53013393702433</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="L36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="M36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="N36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="O36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="P36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="R36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="S36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="T36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="U36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="V36" t="n">
-        <v>42.53013393702433</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="W36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y36" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="C37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="D37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="E37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="F37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="G37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="H37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="I37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="J37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="K37" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="L37" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="M37" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="N37" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="O37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="P37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="R37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="S37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="T37" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="U37" t="n">
-        <v>66.37470314139173</v>
+        <v>66.37470314139185</v>
       </c>
       <c r="V37" t="n">
-        <v>66.37470314139173</v>
+        <v>66.37470314139185</v>
       </c>
       <c r="W37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="X37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185824</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>761.1064616071308</v>
+        <v>761.106461607131</v>
       </c>
       <c r="C38" t="n">
-        <v>660.043327714018</v>
+        <v>660.0433277140182</v>
       </c>
       <c r="D38" t="n">
-        <v>571.5391208299473</v>
+        <v>571.5391208299475</v>
       </c>
       <c r="E38" t="n">
-        <v>448.9876892798068</v>
+        <v>448.987689279807</v>
       </c>
       <c r="F38" t="n">
-        <v>294.3955127010024</v>
+        <v>294.3955127010025</v>
       </c>
       <c r="G38" t="n">
-        <v>123.9754674333324</v>
+        <v>123.9754674333325</v>
       </c>
       <c r="H38" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I38" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="J38" t="n">
-        <v>25.81135742185822</v>
+        <v>194.8722514106353</v>
       </c>
       <c r="K38" t="n">
-        <v>25.81135742185822</v>
+        <v>432.0018886183627</v>
       </c>
       <c r="L38" t="n">
-        <v>204.4228677278567</v>
+        <v>721.58315829767</v>
       </c>
       <c r="M38" t="n">
-        <v>523.8384158233522</v>
+        <v>721.58315829767</v>
       </c>
       <c r="N38" t="n">
-        <v>841.4005608987879</v>
+        <v>1004.147072622186</v>
       </c>
       <c r="O38" t="n">
-        <v>1051.570031461145</v>
+        <v>1271.213878494425</v>
       </c>
       <c r="P38" t="n">
-        <v>1279.914635957866</v>
+        <v>1271.213878494425</v>
       </c>
       <c r="Q38" t="n">
-        <v>1279.914635957866</v>
+        <v>1290.567871092911</v>
       </c>
       <c r="R38" t="n">
         <v>1290.567871092911</v>
@@ -7208,16 +7208,16 @@
         <v>1290.567871092911</v>
       </c>
       <c r="V38" t="n">
-        <v>1219.126670302855</v>
+        <v>1219.126670302856</v>
       </c>
       <c r="W38" t="n">
         <v>1130.496903637432</v>
       </c>
       <c r="X38" t="n">
-        <v>1019.759813266008</v>
+        <v>1019.759813266009</v>
       </c>
       <c r="Y38" t="n">
-        <v>886.292568224137</v>
+        <v>886.2925682241371</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="C39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="D39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="E39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="F39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="G39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="H39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="J39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="K39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="L39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="M39" t="n">
-        <v>25.81135742185822</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="N39" t="n">
-        <v>25.81135742185822</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="O39" t="n">
-        <v>42.53013393702433</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="P39" t="n">
-        <v>42.53013393702433</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.53013393702433</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="R39" t="n">
-        <v>42.53013393702433</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="S39" t="n">
-        <v>42.53013393702433</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="T39" t="n">
-        <v>42.53013393702433</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="U39" t="n">
-        <v>42.53013393702433</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="V39" t="n">
-        <v>42.53013393702433</v>
+        <v>42.5301339370244</v>
       </c>
       <c r="W39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="X39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="Y39" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="C40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="D40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="E40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="F40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="G40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="H40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="I40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="J40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="K40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="L40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="M40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="N40" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="O40" t="n">
-        <v>45.29401164769543</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="P40" t="n">
-        <v>45.29401164769543</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.29401164769543</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="R40" t="n">
-        <v>90.93747965876922</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="S40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="T40" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603286</v>
       </c>
       <c r="U40" t="n">
-        <v>66.37470314139173</v>
+        <v>66.37470314139181</v>
       </c>
       <c r="V40" t="n">
-        <v>66.37470314139173</v>
+        <v>66.37470314139181</v>
       </c>
       <c r="W40" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="X40" t="n">
-        <v>25.81135742185822</v>
+        <v>53.76256144642525</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.81135742185822</v>
+        <v>86.44416623912562</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>761.1064616071305</v>
+        <v>761.1064616071309</v>
       </c>
       <c r="C41" t="n">
-        <v>660.0433277140178</v>
+        <v>660.043327714018</v>
       </c>
       <c r="D41" t="n">
-        <v>571.5391208299469</v>
+        <v>571.5391208299473</v>
       </c>
       <c r="E41" t="n">
-        <v>448.9876892798065</v>
+        <v>448.9876892798068</v>
       </c>
       <c r="F41" t="n">
-        <v>294.3955127010021</v>
+        <v>294.3955127010024</v>
       </c>
       <c r="G41" t="n">
         <v>123.9754674333324</v>
       </c>
       <c r="H41" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I41" t="n">
-        <v>33.69269639350459</v>
+        <v>33.69269639350458</v>
       </c>
       <c r="J41" t="n">
-        <v>33.69269639350459</v>
+        <v>202.7535903822817</v>
       </c>
       <c r="K41" t="n">
-        <v>270.822333601232</v>
+        <v>439.8832275900091</v>
       </c>
       <c r="L41" t="n">
-        <v>292.4655809221345</v>
+        <v>729.4644972693166</v>
       </c>
       <c r="M41" t="n">
-        <v>611.88112901763</v>
+        <v>1048.880045364812</v>
       </c>
       <c r="N41" t="n">
-        <v>929.4432740930656</v>
+        <v>1156.29523873954</v>
       </c>
       <c r="O41" t="n">
-        <v>1206.200053100252</v>
+        <v>1188.76108546305</v>
       </c>
       <c r="P41" t="n">
-        <v>1290.567871092911</v>
+        <v>1188.76108546305</v>
       </c>
       <c r="Q41" t="n">
-        <v>1290.567871092911</v>
+        <v>1188.76108546305</v>
       </c>
       <c r="R41" t="n">
-        <v>1290.567871092911</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="S41" t="n">
-        <v>1290.567871092911</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T41" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="U41" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="V41" t="n">
-        <v>1219.126670302855</v>
+        <v>1219.126670302856</v>
       </c>
       <c r="W41" t="n">
         <v>1130.496903637432</v>
       </c>
       <c r="X41" t="n">
-        <v>1019.759813266008</v>
+        <v>1019.759813266009</v>
       </c>
       <c r="Y41" t="n">
-        <v>886.2925682241367</v>
+        <v>886.2925682241371</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="C42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="D42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="E42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="F42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="G42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="H42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="J42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="K42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="L42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="M42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="N42" t="n">
-        <v>25.81135742185822</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="O42" t="n">
-        <v>25.81135742185822</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="P42" t="n">
-        <v>25.81135742185822</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.81135742185822</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="R42" t="n">
-        <v>29.73552654697928</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="S42" t="n">
-        <v>29.73552654697928</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="T42" t="n">
-        <v>29.73552654697928</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="U42" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="V42" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702435</v>
       </c>
       <c r="W42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="X42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="C43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="D43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="E43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="F43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="G43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="H43" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="I43" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="J43" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="K43" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="L43" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="M43" t="n">
-        <v>25.81135742185822</v>
+        <v>105.2679480603285</v>
       </c>
       <c r="N43" t="n">
         <v>105.2679480603285</v>
@@ -7600,19 +7600,19 @@
         <v>105.2679480603285</v>
       </c>
       <c r="U43" t="n">
-        <v>66.37470314139171</v>
+        <v>66.37470314139175</v>
       </c>
       <c r="V43" t="n">
-        <v>66.37470314139171</v>
+        <v>66.37470314139175</v>
       </c>
       <c r="W43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="X43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>761.1064616071309</v>
+        <v>761.106461607131</v>
       </c>
       <c r="C44" t="n">
         <v>660.043327714018</v>
@@ -7631,58 +7631,58 @@
         <v>571.539120829947</v>
       </c>
       <c r="E44" t="n">
-        <v>448.9876892798063</v>
+        <v>448.9876892798061</v>
       </c>
       <c r="F44" t="n">
-        <v>294.395512701002</v>
+        <v>294.3955127010016</v>
       </c>
       <c r="G44" t="n">
-        <v>123.9754674333324</v>
+        <v>123.9754674333325</v>
       </c>
       <c r="H44" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I44" t="n">
-        <v>25.81135742185822</v>
+        <v>33.69269639350449</v>
       </c>
       <c r="J44" t="n">
-        <v>25.81135742185822</v>
+        <v>202.7535903822815</v>
       </c>
       <c r="K44" t="n">
-        <v>25.81135742185822</v>
+        <v>439.8832275900088</v>
       </c>
       <c r="L44" t="n">
-        <v>228.2301549464412</v>
+        <v>729.4644972693161</v>
       </c>
       <c r="M44" t="n">
-        <v>408.2559545606215</v>
+        <v>1048.880045364812</v>
       </c>
       <c r="N44" t="n">
-        <v>725.8180996360572</v>
+        <v>1056.909098739923</v>
       </c>
       <c r="O44" t="n">
-        <v>1002.574878643243</v>
+        <v>1086.014412868382</v>
       </c>
       <c r="P44" t="n">
-        <v>1230.919483139964</v>
+        <v>1086.014412868382</v>
       </c>
       <c r="Q44" t="n">
-        <v>1230.919483139964</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="R44" t="n">
-        <v>1241.57271827501</v>
+        <v>1241.572718275011</v>
       </c>
       <c r="S44" t="n">
-        <v>1263.290529754934</v>
+        <v>1263.290529754935</v>
       </c>
       <c r="T44" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="U44" t="n">
-        <v>1290.567871092911</v>
+        <v>1290.567871092912</v>
       </c>
       <c r="V44" t="n">
-        <v>1219.126670302855</v>
+        <v>1219.126670302856</v>
       </c>
       <c r="W44" t="n">
         <v>1130.496903637432</v>
@@ -7691,7 +7691,7 @@
         <v>1019.759813266009</v>
       </c>
       <c r="Y44" t="n">
-        <v>886.2925682241371</v>
+        <v>886.2925682241373</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="C45" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="D45" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="E45" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="F45" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="G45" t="n">
-        <v>42.5301339370243</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="H45" t="n">
-        <v>42.5301339370243</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I45" t="n">
-        <v>42.5301339370243</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="J45" t="n">
-        <v>42.5301339370243</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="K45" t="n">
-        <v>42.5301339370243</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="L45" t="n">
-        <v>42.5301339370243</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="M45" t="n">
-        <v>42.5301339370243</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="N45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="O45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="P45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="Q45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="R45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="S45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="T45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="U45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="V45" t="n">
-        <v>42.5301339370243</v>
+        <v>42.53013393702443</v>
       </c>
       <c r="W45" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="X45" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="C46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="D46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="E46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="F46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="G46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="H46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="I46" t="n">
-        <v>105.2679480603285</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="J46" t="n">
-        <v>105.2679480603285</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="K46" t="n">
-        <v>105.2679480603285</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2679480603285</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="M46" t="n">
-        <v>105.2679480603285</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2679480603285</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="O46" t="n">
-        <v>105.2679480603285</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="P46" t="n">
-        <v>105.2679480603285</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.2679480603285</v>
+        <v>59.62448004925501</v>
       </c>
       <c r="R46" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="S46" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="T46" t="n">
-        <v>105.2679480603285</v>
+        <v>105.2679480603287</v>
       </c>
       <c r="U46" t="n">
-        <v>66.37470314139171</v>
+        <v>66.37470314139183</v>
       </c>
       <c r="V46" t="n">
-        <v>66.37470314139171</v>
+        <v>66.37470314139183</v>
       </c>
       <c r="W46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="X46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.81135742185822</v>
+        <v>25.81135742185823</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>6.016860097736647</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>37.73217453057968</v>
       </c>
       <c r="L11" t="n">
-        <v>228.2911288462876</v>
+        <v>228.2911288462877</v>
       </c>
       <c r="M11" t="n">
-        <v>257.4849097117382</v>
+        <v>84.6980605673218</v>
       </c>
       <c r="N11" t="n">
-        <v>5.513450748570008</v>
+        <v>212.7839583354219</v>
       </c>
       <c r="O11" t="n">
-        <v>34.4170486836748</v>
+        <v>34.41704868367489</v>
       </c>
       <c r="P11" t="n">
-        <v>86.75904129747872</v>
+        <v>2.591255098870668</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>17.31613966918988</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>125.3490926623395</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>122.4225604485062</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>126.0954398958501</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>125.027293970408</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8860,13 +8860,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.016860097736711</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>37.73217453057951</v>
       </c>
       <c r="L14" t="n">
-        <v>2.854941876293722</v>
+        <v>228.2911288462876</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>41.36030806328708</v>
       </c>
       <c r="N14" t="n">
-        <v>117.669854504143</v>
+        <v>212.7839583354218</v>
       </c>
       <c r="O14" t="n">
-        <v>246.758517458259</v>
+        <v>217.3592102577956</v>
       </c>
       <c r="P14" t="n">
-        <v>45.08528049474389</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.167320383784308</v>
+        <v>47.66134577965732</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,16 +9003,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>122.4225604485062</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9085,19 +9085,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O26" t="n">
-        <v>246.758517458259</v>
+        <v>218.4192393305939</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>117.3204679377203</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R26" t="n">
-        <v>42.58424007769262</v>
+        <v>2.536984291748098</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L27" t="n">
         <v>125.3490926623394</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>157.1303990133388</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P27" t="n">
         <v>125.0272939704079</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>228.2911288462876</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M29" t="n">
-        <v>279.230872866796</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N29" t="n">
         <v>283.4008070189657</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10197,19 +10197,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>108.8489465846134</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>7.173961031953027</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
         <v>69.16996059133484</v>
@@ -10285,7 +10285,7 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10361,7 +10361,7 @@
         <v>283.4008070189657</v>
       </c>
       <c r="O32" t="n">
-        <v>246.758517458259</v>
+        <v>217.3592102577956</v>
       </c>
       <c r="P32" t="n">
         <v>208.5255628951208</v>
@@ -10425,10 +10425,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>56.3243339331182</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>107.9066134679088</v>
+        <v>21.8042702420998</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10504,19 +10504,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M34" t="n">
         <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O34" t="n">
         <v>105.6509998050918</v>
@@ -10525,7 +10525,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>42.29509440347674</v>
       </c>
       <c r="M35" t="n">
-        <v>183.6796401608146</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10604,7 +10604,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10659,25 +10659,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>135.6762311797751</v>
+        <v>152.5638842253975</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N36" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P36" t="n">
         <v>125.0272939704079</v>
@@ -10686,7 +10686,7 @@
         <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10747,19 +10747,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>287.4798572620955</v>
+        <v>214.9908843158649</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189657</v>
+        <v>248.0490587857136</v>
       </c>
       <c r="O38" t="n">
-        <v>179.4986099382295</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.5801139476182</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10978,28 +10978,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11063,25 +11063,25 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>287.4798572620955</v>
+        <v>287.4798572620957</v>
       </c>
       <c r="N41" t="n">
-        <v>283.4008070189657</v>
+        <v>71.13115883643226</v>
       </c>
       <c r="O41" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>63.09446541627079</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11133,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N42" t="n">
-        <v>107.9066134679088</v>
+        <v>124.7942665135311</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P42" t="n">
         <v>125.0272939704079</v>
       </c>
       <c r="Q42" t="n">
-        <v>93.80757416311491</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,19 +11218,19 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>15.48010880299294</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11303,19 +11303,19 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>146.6821315233934</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N44" t="n">
-        <v>283.4008070189657</v>
+        <v>220.8941132597766</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>47.40248470668943</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>124.7942665135312</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11452,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,13 +11467,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111.2223158391542</v>
+        <v>148.6510534078394</v>
       </c>
       <c r="C11" t="n">
         <v>124.7693104111848</v>
@@ -23264,7 +23264,7 @@
         <v>112.3359726722333</v>
       </c>
       <c r="E11" t="n">
-        <v>103.548699695769</v>
+        <v>107.5926293848818</v>
       </c>
       <c r="F11" t="n">
         <v>177.7630626700195</v>
@@ -23273,10 +23273,10 @@
         <v>193.4326526719961</v>
       </c>
       <c r="H11" t="n">
-        <v>79.40525137248939</v>
+        <v>79.40525137248945</v>
       </c>
       <c r="I11" t="n">
-        <v>16.75585940079475</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>24.71680785700309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>95.44359663915805</v>
@@ -23321,7 +23321,7 @@
         <v>112.4602768557729</v>
       </c>
       <c r="X11" t="n">
-        <v>91.85250192883893</v>
+        <v>91.85250192883899</v>
       </c>
       <c r="Y11" t="n">
         <v>156.8493804484559</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>20.72709493087738</v>
+        <v>20.72709493087745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>22.38049472346813</v>
+        <v>22.3804947234682</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.1570280119661</v>
+        <v>148.6510534078393</v>
       </c>
       <c r="C14" t="n">
-        <v>112.0573806995029</v>
+        <v>124.7693104111848</v>
       </c>
       <c r="D14" t="n">
         <v>112.3359726722333</v>
       </c>
       <c r="E14" t="n">
-        <v>146.0427250916422</v>
+        <v>146.0427250916421</v>
       </c>
       <c r="F14" t="n">
-        <v>177.7630626700195</v>
+        <v>135.2690372741463</v>
       </c>
       <c r="G14" t="n">
-        <v>193.4326526719961</v>
+        <v>193.432652671996</v>
       </c>
       <c r="H14" t="n">
-        <v>121.8992767683626</v>
+        <v>83.4491810616028</v>
       </c>
       <c r="I14" t="n">
-        <v>16.75585940079478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>52.94957124328482</v>
+        <v>95.44359663915799</v>
       </c>
       <c r="W14" t="n">
-        <v>112.4602768557729</v>
+        <v>69.96625145989969</v>
       </c>
       <c r="X14" t="n">
-        <v>91.85250192883893</v>
+        <v>134.3465273247121</v>
       </c>
       <c r="Y14" t="n">
         <v>156.8493804484559</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>20.72709493087738</v>
+        <v>20.72709493087739</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.38049472346813</v>
+        <v>22.38049472346814</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.94924200850618</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.58244823586926</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.80876041837337</v>
+        <v>50.16589093679949</v>
       </c>
       <c r="G17" t="n">
-        <v>38.4783504203499</v>
+        <v>38.47835042034995</v>
       </c>
       <c r="H17" t="n">
-        <v>9.438999912589679</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>21.88625046893924</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.895078196809777</v>
+        <v>1.895078196809834</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.47666476109186</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>22.80876041837337</v>
+        <v>62.47492449221146</v>
       </c>
       <c r="G20" t="n">
-        <v>80.97237581622312</v>
+        <v>38.47835042034996</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>21.88625046893924</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.895078196809777</v>
+        <v>1.895078196809834</v>
       </c>
     </row>
     <row r="21">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1184280.952814858</v>
+        <v>1184280.952814859</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1184280.952814858</v>
+        <v>1184280.952814859</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440965.99758823</v>
+        <v>440965.9975882299</v>
       </c>
       <c r="C2" t="n">
         <v>440965.9975882299</v>
@@ -26320,37 +26320,37 @@
         <v>440965.9975882299</v>
       </c>
       <c r="E2" t="n">
-        <v>385599.8669525931</v>
+        <v>385599.8669525933</v>
       </c>
       <c r="F2" t="n">
-        <v>385599.8669525931</v>
+        <v>385599.8669525935</v>
       </c>
       <c r="G2" t="n">
+        <v>436325.5170687425</v>
+      </c>
+      <c r="H2" t="n">
         <v>436325.5170687424</v>
       </c>
-      <c r="H2" t="n">
-        <v>436325.5170687425</v>
-      </c>
       <c r="I2" t="n">
-        <v>441717.1442656102</v>
+        <v>441717.1442656103</v>
       </c>
       <c r="J2" t="n">
+        <v>441859.2744292677</v>
+      </c>
+      <c r="K2" t="n">
+        <v>441859.2744292678</v>
+      </c>
+      <c r="L2" t="n">
+        <v>441859.2744292677</v>
+      </c>
+      <c r="M2" t="n">
+        <v>441859.2744292677</v>
+      </c>
+      <c r="N2" t="n">
         <v>441859.2744292676</v>
       </c>
-      <c r="K2" t="n">
-        <v>441859.2744292679</v>
-      </c>
-      <c r="L2" t="n">
-        <v>441859.2744292676</v>
-      </c>
-      <c r="M2" t="n">
-        <v>441859.2744292676</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>441859.2744292677</v>
-      </c>
-      <c r="O2" t="n">
-        <v>441859.2744292679</v>
       </c>
       <c r="P2" t="n">
         <v>441859.2744292677</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>268189.4957533075</v>
+        <v>268189.4957533073</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>89968.22148461833</v>
+        <v>89968.22148461829</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9282.568375648876</v>
+        <v>9282.568375648892</v>
       </c>
       <c r="J3" t="n">
         <v>174799.9769962072</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
         <v>89968.22148461833</v>
       </c>
       <c r="M3" t="n">
-        <v>10638.26229000083</v>
+        <v>10638.26229000078</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>99515.91208697857</v>
+        <v>99515.91208697853</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
+        <v>412276.9994310432</v>
+      </c>
+      <c r="F4" t="n">
         <v>412276.9994310431</v>
-      </c>
-      <c r="F4" t="n">
-        <v>412276.9994310432</v>
       </c>
       <c r="G4" t="n">
         <v>465631.4922360424</v>
@@ -26451,7 +26451,7 @@
         <v>480027.6217719744</v>
       </c>
       <c r="N4" t="n">
-        <v>480027.6217719744</v>
+        <v>480027.6217719743</v>
       </c>
       <c r="O4" t="n">
         <v>480027.6217719744</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23575.06998390377</v>
+        <v>23575.06998390376</v>
       </c>
       <c r="F5" t="n">
         <v>23575.06998390377</v>
@@ -26491,19 +26491,19 @@
         <v>35151.8532383593</v>
       </c>
       <c r="J5" t="n">
-        <v>44151.68385367381</v>
+        <v>44151.68385367382</v>
       </c>
       <c r="K5" t="n">
-        <v>44151.68385367381</v>
+        <v>44151.68385367382</v>
       </c>
       <c r="L5" t="n">
-        <v>44151.68385367381</v>
+        <v>44151.68385367382</v>
       </c>
       <c r="M5" t="n">
-        <v>42685.98220017732</v>
+        <v>42685.98220017733</v>
       </c>
       <c r="N5" t="n">
-        <v>42685.98220017732</v>
+        <v>42685.98220017733</v>
       </c>
       <c r="O5" t="n">
         <v>42685.98220017733</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96039.34814864982</v>
+        <v>-96043.81453285513</v>
       </c>
       <c r="C6" t="n">
-        <v>-96039.34814864994</v>
+        <v>-96043.81453285513</v>
       </c>
       <c r="D6" t="n">
-        <v>-96039.34814864988</v>
+        <v>-96043.81453285507</v>
       </c>
       <c r="E6" t="n">
-        <v>-318441.6982156612</v>
+        <v>-318722.9952530443</v>
       </c>
       <c r="F6" t="n">
-        <v>-50252.20246235385</v>
+        <v>-50533.49949973681</v>
       </c>
       <c r="G6" t="n">
-        <v>-152303.6896508101</v>
+        <v>-152331.3584376126</v>
       </c>
       <c r="H6" t="n">
-        <v>-62335.4681661916</v>
+        <v>-62363.13695299433</v>
       </c>
       <c r="I6" t="n">
-        <v>-74644.96533692567</v>
+        <v>-74645.6759877439</v>
       </c>
       <c r="J6" t="n">
-        <v>-259350.7158472253</v>
+        <v>-259350.7158472252</v>
       </c>
       <c r="K6" t="n">
-        <v>-84550.73885101784</v>
+        <v>-84550.73885101797</v>
       </c>
       <c r="L6" t="n">
-        <v>-174518.9603356365</v>
+        <v>-174518.9603356364</v>
       </c>
       <c r="M6" t="n">
-        <v>-91492.59183288494</v>
+        <v>-91492.59183288482</v>
       </c>
       <c r="N6" t="n">
         <v>-80854.32954288402</v>
       </c>
       <c r="O6" t="n">
-        <v>-180370.2416298623</v>
+        <v>-180370.2416298625</v>
       </c>
       <c r="P6" t="n">
         <v>-80854.32954288402</v>
@@ -26707,10 +26707,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="K2" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="L2" t="n">
         <v>236.8551669644961</v>
@@ -26722,10 +26722,10 @@
         <v>250.1529948269971</v>
       </c>
       <c r="O2" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="P2" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
     </row>
     <row r="3">
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>93.5430475896444</v>
+      </c>
+      <c r="F3" t="n">
         <v>93.54304758964463</v>
-      </c>
-      <c r="F3" t="n">
-        <v>93.5430475896444</v>
       </c>
       <c r="G3" t="n">
         <v>93.54304758964463</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="I4" t="n">
         <v>77.40126617658959</v>
       </c>
       <c r="J4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="K4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="L4" t="n">
-        <v>365.135993169101</v>
+        <v>365.1359931691011</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6419677732277</v>
+        <v>322.641967773228</v>
       </c>
       <c r="N4" t="n">
-        <v>322.6419677732277</v>
+        <v>322.6419677732279</v>
       </c>
       <c r="O4" t="n">
-        <v>322.6419677732277</v>
+        <v>322.6419677732279</v>
       </c>
       <c r="P4" t="n">
-        <v>322.6419677732277</v>
+        <v>322.6419677732279</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>225.436186969994</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>112.4602768557729</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.3948901087232</v>
+        <v>124.3948901087231</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>112.4602768557729</v>
       </c>
       <c r="M2" t="n">
-        <v>13.29782786250104</v>
+        <v>13.29782786250098</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>93.54304758964463</v>
+        <v>93.5430475896444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>34.90724078071636</v>
+        <v>34.90724078071643</v>
       </c>
       <c r="J4" t="n">
-        <v>287.7347269925114</v>
+        <v>287.7347269925116</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>225.436186969994</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>112.4602768557729</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>124.3948901087232</v>
+        <v>124.3948901087231</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,25 +28114,25 @@
         <v>225.436186969994</v>
       </c>
       <c r="K11" t="n">
-        <v>10.62810875858561</v>
+        <v>225.436186969994</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>130.2928237485433</v>
       </c>
       <c r="N11" t="n">
-        <v>225.436186969994</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>225.436186969994</v>
       </c>
       <c r="P11" t="n">
-        <v>141.2684007713858</v>
+        <v>225.436186969994</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.02339340615995</v>
+        <v>225.436186969994</v>
       </c>
       <c r="R11" t="n">
         <v>225.436186969994</v>
@@ -28166,19 +28166,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>219.2445197935389</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>186.3386228721132</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>201.3174645158016</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.761012594616</v>
@@ -28193,22 +28193,22 @@
         <v>135.7323687962717</v>
       </c>
       <c r="K12" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>107.9066134679088</v>
+        <v>107.9066134679089</v>
       </c>
       <c r="O12" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>152.1936017659425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>145.0940204505216</v>
@@ -28217,7 +28217,7 @@
         <v>165.2365855749133</v>
       </c>
       <c r="S12" t="n">
-        <v>191.8955649522593</v>
+        <v>191.8955649522594</v>
       </c>
       <c r="T12" t="n">
         <v>215.0370598435168</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220.1109460608413</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28260,10 +28260,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>197.4452003355705</v>
+        <v>177.958373799508</v>
       </c>
       <c r="H13" t="n">
-        <v>165.9467011478387</v>
+        <v>208.4407265437119</v>
       </c>
       <c r="I13" t="n">
         <v>165.2666490039705</v>
@@ -28272,34 +28272,34 @@
         <v>143.0084423346753</v>
       </c>
       <c r="K13" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L13" t="n">
-        <v>139.4805673535853</v>
+        <v>139.4805673535854</v>
       </c>
       <c r="M13" t="n">
         <v>143.0474437998775</v>
       </c>
       <c r="N13" t="n">
-        <v>172.4571089864661</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O13" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888107</v>
       </c>
       <c r="P13" t="n">
-        <v>147.6265796099169</v>
+        <v>147.626579609917</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.3688647731046</v>
+        <v>213.2051271977608</v>
       </c>
       <c r="R13" t="n">
-        <v>204.0484816844984</v>
+        <v>225.436186969994</v>
       </c>
       <c r="S13" t="n">
         <v>225.436186969994</v>
       </c>
       <c r="T13" t="n">
-        <v>223.8203341576757</v>
+        <v>225.436186969994</v>
       </c>
       <c r="U13" t="n">
         <v>225.436186969994</v>
@@ -28311,7 +28311,7 @@
         <v>225.436186969994</v>
       </c>
       <c r="X13" t="n">
-        <v>225.436186969994</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y13" t="n">
         <v>217.1412728141684</v>
@@ -28351,22 +28351,22 @@
         <v>225.436186969994</v>
       </c>
       <c r="K14" t="n">
-        <v>10.62810875858573</v>
+        <v>225.436186969994</v>
       </c>
       <c r="L14" t="n">
-        <v>225.436186969994</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>225.436186969994</v>
+        <v>173.6305762525779</v>
       </c>
       <c r="N14" t="n">
-        <v>109.9123386579657</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>225.436186969994</v>
+        <v>37.66755855688569</v>
       </c>
       <c r="Q14" t="n">
         <v>225.436186969994</v>
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.5947838458759</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28421,34 +28421,34 @@
         <v>148.761012594616</v>
       </c>
       <c r="H15" t="n">
-        <v>125.8939924814591</v>
+        <v>153.8904311246086</v>
       </c>
       <c r="I15" t="n">
         <v>114.4898231888801</v>
       </c>
       <c r="J15" t="n">
-        <v>54.02537789568682</v>
+        <v>135.7323687962717</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L15" t="n">
-        <v>125.3490926623395</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>122.422560448506</v>
       </c>
       <c r="N15" t="n">
-        <v>107.9066134679089</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O15" t="n">
-        <v>126.0954398958501</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P15" t="n">
-        <v>125.027293970408</v>
+        <v>125.0272939704079</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.963937997691424</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R15" t="n">
         <v>165.2365855749133</v>
@@ -28469,7 +28469,7 @@
         <v>225.436186969994</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>225.436186969994</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -28485,7 +28485,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>208.9512063678455</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28503,34 +28503,34 @@
         <v>208.4407265437119</v>
       </c>
       <c r="I16" t="n">
-        <v>207.7606743998437</v>
+        <v>165.2666490039705</v>
       </c>
       <c r="J16" t="n">
-        <v>143.0084423346753</v>
+        <v>145.5732238469088</v>
       </c>
       <c r="K16" t="n">
-        <v>68.62817916039609</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L16" t="n">
-        <v>139.4805673535854</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M16" t="n">
-        <v>27.37318353055675</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N16" t="n">
-        <v>162.2104845441479</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O16" t="n">
-        <v>39.42323441888107</v>
+        <v>145.0742342239729</v>
       </c>
       <c r="P16" t="n">
-        <v>147.626579609917</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q16" t="n">
         <v>170.7111018018876</v>
       </c>
       <c r="R16" t="n">
-        <v>204.0484816844984</v>
+        <v>225.436186969994</v>
       </c>
       <c r="S16" t="n">
         <v>225.436186969994</v>
@@ -28551,7 +28551,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.1412728141684</v>
+        <v>225.436186969994</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I17" t="n">
-        <v>242.1920463707887</v>
+        <v>284.6860717666619</v>
       </c>
       <c r="J17" t="n">
         <v>188.9590216718574</v>
@@ -28600,28 +28600,28 @@
         <v>212.7839583354218</v>
       </c>
       <c r="O17" t="n">
-        <v>259.8532356536688</v>
+        <v>217.3592102577956</v>
       </c>
       <c r="P17" t="n">
         <v>228.0274420688645</v>
       </c>
       <c r="Q17" t="n">
-        <v>273.0975327496514</v>
+        <v>230.6035073537782</v>
       </c>
       <c r="R17" t="n">
-        <v>281.8861766521173</v>
+        <v>239.3921512562441</v>
       </c>
       <c r="S17" t="n">
-        <v>228.2158115139423</v>
+        <v>251.9762263741754</v>
       </c>
       <c r="T17" t="n">
-        <v>263.3772198654847</v>
+        <v>265.0941501845098</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1529948269971</v>
+        <v>292.6470202228703</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28819,22 +28819,22 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>242.1920463707887</v>
+        <v>265.9524612310219</v>
       </c>
       <c r="J20" t="n">
-        <v>229.7361167487054</v>
+        <v>188.9590216718574</v>
       </c>
       <c r="K20" t="n">
         <v>220.6743361047004</v>
       </c>
       <c r="L20" t="n">
-        <v>228.2911288462876</v>
+        <v>270.7851542421607</v>
       </c>
       <c r="M20" t="n">
-        <v>257.4849097117382</v>
+        <v>257.4849097117381</v>
       </c>
       <c r="N20" t="n">
-        <v>212.7839583354218</v>
+        <v>255.2779837312949</v>
       </c>
       <c r="O20" t="n">
         <v>217.3592102577956</v>
@@ -28849,16 +28849,16 @@
         <v>239.3921512562441</v>
       </c>
       <c r="S20" t="n">
-        <v>270.7098369098155</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T20" t="n">
-        <v>265.0941501845099</v>
+        <v>222.6001247886366</v>
       </c>
       <c r="U20" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -29056,25 +29056,25 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I23" t="n">
-        <v>242.1920463707887</v>
+        <v>319.5933125473783</v>
       </c>
       <c r="J23" t="n">
-        <v>266.360287848447</v>
+        <v>188.9590216718574</v>
       </c>
       <c r="K23" t="n">
         <v>220.6743361047004</v>
       </c>
       <c r="L23" t="n">
-        <v>228.2911288462876</v>
+        <v>285.5483909203395</v>
       </c>
       <c r="M23" t="n">
-        <v>292.3921504924546</v>
+        <v>214.9908843158649</v>
       </c>
       <c r="N23" t="n">
-        <v>212.7839583354218</v>
+        <v>290.1852245120114</v>
       </c>
       <c r="O23" t="n">
-        <v>291.6331525484623</v>
+        <v>217.3592102577956</v>
       </c>
       <c r="P23" t="n">
         <v>228.0274420688645</v>
@@ -29086,16 +29086,16 @@
         <v>239.3921512562441</v>
       </c>
       <c r="S23" t="n">
-        <v>305.6170776905319</v>
+        <v>228.2158115139423</v>
       </c>
       <c r="T23" t="n">
         <v>222.6001247886366</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1529948269971</v>
+        <v>327.5542610035867</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="C26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="D26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="E26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="F26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="G26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="H26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="I26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="J26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="K26" t="n">
-        <v>28.79406440329224</v>
+        <v>236.855166964496</v>
       </c>
       <c r="L26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="O26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="P26" t="n">
-        <v>236.8551669644961</v>
+        <v>228.0274420688645</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.8551669644961</v>
+        <v>231.3325866853997</v>
       </c>
       <c r="R26" t="n">
-        <v>196.8079111785515</v>
+        <v>236.855166964496</v>
       </c>
       <c r="S26" t="n">
-        <v>228.2158115139423</v>
+        <v>236.855166964496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.6001247886366</v>
+        <v>236.855166964496</v>
       </c>
       <c r="U26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="Y26" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
     </row>
     <row r="27">
@@ -29366,40 +29366,40 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>183.4688511594485</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H27" t="n">
         <v>125.8939924814591</v>
       </c>
       <c r="I27" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J27" t="n">
         <v>54.02537789568677</v>
       </c>
       <c r="K27" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>145.0940204505216</v>
+        <v>8.963937997691364</v>
       </c>
       <c r="R27" t="n">
-        <v>165.2365855749133</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S27" t="n">
         <v>191.8955649522593</v>
@@ -29408,13 +29408,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U27" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V27" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W27" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -29445,10 +29445,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7145309437669</v>
+        <v>236.855166964496</v>
       </c>
       <c r="H28" t="n">
-        <v>165.9467011478387</v>
+        <v>213.6223376268971</v>
       </c>
       <c r="I28" t="n">
         <v>165.2666490039705</v>
@@ -29457,25 +29457,25 @@
         <v>143.0084423346753</v>
       </c>
       <c r="K28" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L28" t="n">
-        <v>236.8551669644961</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M28" t="n">
-        <v>27.37318353055668</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N28" t="n">
-        <v>18.62520307538163</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O28" t="n">
         <v>145.0742342239729</v>
       </c>
       <c r="P28" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q28" t="n">
-        <v>189.152774690764</v>
+        <v>170.7111018018876</v>
       </c>
       <c r="R28" t="n">
         <v>204.0484816844984</v>
@@ -29487,13 +29487,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U28" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V28" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W28" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="C29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="D29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="F29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="G29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="H29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="I29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="J29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="K29" t="n">
-        <v>236.8551669644961</v>
+        <v>182.4479319455338</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.855166964496</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="O29" t="n">
-        <v>236.8551669644961</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="Q29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="R29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="S29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="T29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="U29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>222.2259900891987</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29609,31 +29609,31 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I30" t="n">
-        <v>107.9283390365971</v>
+        <v>114.4898231888801</v>
       </c>
       <c r="J30" t="n">
         <v>135.7323687962717</v>
       </c>
       <c r="K30" t="n">
-        <v>170.3840697446076</v>
+        <v>135.6762311797751</v>
       </c>
       <c r="L30" t="n">
         <v>125.3490926623394</v>
       </c>
       <c r="M30" t="n">
-        <v>122.422560448506</v>
+        <v>13.57361386389262</v>
       </c>
       <c r="N30" t="n">
         <v>107.9066134679088</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>126.09543989585</v>
       </c>
       <c r="P30" t="n">
         <v>125.0272939704079</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.963937997691364</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R30" t="n">
         <v>135.7385435371774</v>
@@ -29645,13 +29645,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W30" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -29691,7 +29691,7 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J31" t="n">
-        <v>236.8551669644961</v>
+        <v>121.2121579575505</v>
       </c>
       <c r="K31" t="n">
         <v>68.62817916039604</v>
@@ -29700,7 +29700,7 @@
         <v>34.19696075465806</v>
       </c>
       <c r="M31" t="n">
-        <v>27.37318353055668</v>
+        <v>143.1894560303442</v>
       </c>
       <c r="N31" t="n">
         <v>18.62520307538163</v>
@@ -29709,7 +29709,7 @@
         <v>39.42323441888101</v>
       </c>
       <c r="P31" t="n">
-        <v>162.4221664479303</v>
+        <v>60.14232658241831</v>
       </c>
       <c r="Q31" t="n">
         <v>128.3688647731046</v>
@@ -29724,13 +29724,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="V31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="W31" t="n">
-        <v>236.8551669644961</v>
+        <v>236.855166964496</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -29770,10 +29770,10 @@
         <v>236.8551669644961</v>
       </c>
       <c r="J32" t="n">
-        <v>79.38441504035356</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="K32" t="n">
-        <v>64.34242146082315</v>
+        <v>15.03932796744544</v>
       </c>
       <c r="L32" t="n">
         <v>236.8551669644961</v>
@@ -29785,13 +29785,13 @@
         <v>236.8551669644961</v>
       </c>
       <c r="O32" t="n">
-        <v>236.8551669644961</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>236.8551669644961</v>
       </c>
       <c r="Q32" t="n">
-        <v>93.02339340615995</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="R32" t="n">
         <v>196.8079111785515</v>
@@ -29800,7 +29800,7 @@
         <v>236.8551669644961</v>
       </c>
       <c r="T32" t="n">
-        <v>222.6001247886366</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="U32" t="n">
         <v>236.8551669644961</v>
@@ -29849,19 +29849,19 @@
         <v>107.9283390365971</v>
       </c>
       <c r="J33" t="n">
-        <v>79.4080348631535</v>
+        <v>135.7323687962717</v>
       </c>
       <c r="K33" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>146.5860503967014</v>
+        <v>125.3490926623394</v>
       </c>
       <c r="M33" t="n">
         <v>122.422560448506</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>86.10234322580897</v>
       </c>
       <c r="O33" t="n">
         <v>126.09543989585</v>
@@ -29870,7 +29870,7 @@
         <v>125.0272939704079</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.963937997691364</v>
+        <v>145.0940204505216</v>
       </c>
       <c r="R33" t="n">
         <v>135.7385435371774</v>
@@ -29879,7 +29879,7 @@
         <v>191.8955649522593</v>
       </c>
       <c r="T33" t="n">
-        <v>215.0370598435168</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="U33" t="n">
         <v>236.8551669644961</v>
@@ -29891,10 +29891,10 @@
         <v>236.8551669644961</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>230.202645883324</v>
       </c>
       <c r="Y33" t="n">
-        <v>236.8551669644961</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -29925,22 +29925,22 @@
         <v>165.9467011478387</v>
       </c>
       <c r="I34" t="n">
-        <v>236.8551669644961</v>
+        <v>165.2666490039705</v>
       </c>
       <c r="J34" t="n">
-        <v>143.0084423346753</v>
+        <v>121.2121579575505</v>
       </c>
       <c r="K34" t="n">
-        <v>180.8485015458579</v>
+        <v>170.2322261082284</v>
       </c>
       <c r="L34" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M34" t="n">
         <v>27.37318353055668</v>
       </c>
       <c r="N34" t="n">
-        <v>129.9630835905929</v>
+        <v>18.62520307538163</v>
       </c>
       <c r="O34" t="n">
         <v>39.42323441888101</v>
@@ -29949,7 +29949,7 @@
         <v>60.14232658241831</v>
       </c>
       <c r="Q34" t="n">
-        <v>170.7111018018876</v>
+        <v>128.3688647731046</v>
       </c>
       <c r="R34" t="n">
         <v>204.0484816844984</v>
@@ -29958,7 +29958,7 @@
         <v>236.8551669644961</v>
       </c>
       <c r="T34" t="n">
-        <v>223.8203341576757</v>
+        <v>236.8551669644961</v>
       </c>
       <c r="U34" t="n">
         <v>236.8551669644961</v>
@@ -30004,10 +30004,10 @@
         <v>250.1529948269971</v>
       </c>
       <c r="I35" t="n">
-        <v>242.1920463707887</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="J35" t="n">
-        <v>79.38441504035356</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="K35" t="n">
         <v>250.1529948269971</v>
@@ -30016,7 +30016,7 @@
         <v>250.1529948269971</v>
       </c>
       <c r="M35" t="n">
-        <v>250.1529948269971</v>
+        <v>214.9908843158649</v>
       </c>
       <c r="N35" t="n">
         <v>250.1529948269971</v>
@@ -30025,19 +30025,19 @@
         <v>250.1529948269971</v>
       </c>
       <c r="P35" t="n">
-        <v>216.4830629056364</v>
+        <v>237.736259529524</v>
       </c>
       <c r="Q35" t="n">
-        <v>230.6035073537782</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="R35" t="n">
-        <v>196.8079111785515</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="S35" t="n">
-        <v>228.2158115139423</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6001247886366</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U35" t="n">
         <v>250.1529948269971</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.6381474432881</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30083,25 +30083,25 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I36" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J36" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>107.9066134679088</v>
       </c>
       <c r="O36" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>8.963937997691364</v>
       </c>
       <c r="R36" t="n">
-        <v>165.2365855749133</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S36" t="n">
         <v>191.8955649522593</v>
@@ -30168,22 +30168,22 @@
         <v>143.0084423346753</v>
       </c>
       <c r="K37" t="n">
-        <v>68.62817916039604</v>
+        <v>148.8873616234976</v>
       </c>
       <c r="L37" t="n">
-        <v>139.4805673535853</v>
+        <v>34.19696075465806</v>
       </c>
       <c r="M37" t="n">
-        <v>143.0474437998775</v>
+        <v>27.37318353055668</v>
       </c>
       <c r="N37" t="n">
-        <v>129.9630835905929</v>
+        <v>18.62520307538163</v>
       </c>
       <c r="O37" t="n">
-        <v>225.3334166870742</v>
+        <v>145.0742342239729</v>
       </c>
       <c r="P37" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q37" t="n">
         <v>170.7111018018876</v>
@@ -30244,31 +30244,31 @@
         <v>242.1920463707887</v>
       </c>
       <c r="J38" t="n">
-        <v>188.9590216718574</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="K38" t="n">
-        <v>220.6743361047004</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="L38" t="n">
-        <v>138.0623287933518</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="M38" t="n">
-        <v>250.1529948269971</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="O38" t="n">
+        <v>240.3651431755352</v>
+      </c>
+      <c r="P38" t="n">
+        <v>228.0274420688645</v>
+      </c>
+      <c r="Q38" t="n">
         <v>250.1529948269971</v>
       </c>
-      <c r="P38" t="n">
-        <v>250.1529948269971</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>93.02339340615995</v>
-      </c>
       <c r="R38" t="n">
-        <v>250.1529948269971</v>
+        <v>196.8079111785515</v>
       </c>
       <c r="S38" t="n">
         <v>228.2158115139423</v>
@@ -30332,16 +30332,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>122.422560448506</v>
+        <v>139.3102134941284</v>
       </c>
       <c r="N39" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>142.9830929414723</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>125.0272939704079</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>145.0940204505216</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>196.6308416964863</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30402,34 +30402,34 @@
         <v>165.2666490039705</v>
       </c>
       <c r="J40" t="n">
-        <v>121.2121579575505</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K40" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L40" t="n">
-        <v>34.19696075465806</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M40" t="n">
-        <v>27.37318353055668</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N40" t="n">
-        <v>18.62520307538163</v>
+        <v>129.9630835905929</v>
       </c>
       <c r="O40" t="n">
-        <v>164.7536829369398</v>
+        <v>145.0742342239729</v>
       </c>
       <c r="P40" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.3688647731046</v>
+        <v>170.7111018018876</v>
       </c>
       <c r="R40" t="n">
-        <v>250.1529948269971</v>
+        <v>204.0484816844984</v>
       </c>
       <c r="S40" t="n">
-        <v>250.1529948269971</v>
+        <v>235.6777742193615</v>
       </c>
       <c r="T40" t="n">
         <v>223.8203341576757</v>
@@ -30444,10 +30444,10 @@
         <v>250.1529948269971</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.1412728141684</v>
+        <v>250.1529948269971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="C41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="D41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="E41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="F41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="G41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="H41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="I41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="J41" t="n">
-        <v>79.38441504035356</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="L41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="M41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="N41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="O41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="P41" t="n">
-        <v>250.1529948269972</v>
+        <v>228.0274420688645</v>
       </c>
       <c r="Q41" t="n">
-        <v>93.02339340615995</v>
+        <v>230.6035073537782</v>
       </c>
       <c r="R41" t="n">
-        <v>239.3921512562441</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="S41" t="n">
-        <v>228.2158115139423</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="T41" t="n">
-        <v>222.6001247886366</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="W41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="X41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
     </row>
     <row r="42">
@@ -30557,34 +30557,34 @@
         <v>125.8939924814591</v>
       </c>
       <c r="I42" t="n">
-        <v>114.4898231888801</v>
+        <v>107.9283390365971</v>
       </c>
       <c r="J42" t="n">
-        <v>135.7323687962717</v>
+        <v>54.02537789568677</v>
       </c>
       <c r="K42" t="n">
-        <v>135.6762311797751</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>125.3490926623394</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>122.422560448506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>126.09543989585</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.28644628740666</v>
+        <v>8.963937997691364</v>
       </c>
       <c r="R42" t="n">
-        <v>169.2003927720053</v>
+        <v>135.7385435371774</v>
       </c>
       <c r="S42" t="n">
         <v>191.8955649522593</v>
@@ -30593,13 +30593,13 @@
         <v>215.0370598435168</v>
       </c>
       <c r="U42" t="n">
-        <v>250.1529948269972</v>
+        <v>237.2291489784668</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30633,7 +30633,7 @@
         <v>168.7145309437669</v>
       </c>
       <c r="H43" t="n">
-        <v>165.9467011478387</v>
+        <v>246.20588361094</v>
       </c>
       <c r="I43" t="n">
         <v>165.2666490039705</v>
@@ -30642,19 +30642,19 @@
         <v>121.2121579575505</v>
       </c>
       <c r="K43" t="n">
-        <v>68.62817916039604</v>
+        <v>137.7981397517309</v>
       </c>
       <c r="L43" t="n">
         <v>139.4805673535853</v>
       </c>
       <c r="M43" t="n">
-        <v>27.37318353055668</v>
+        <v>143.0474437998775</v>
       </c>
       <c r="N43" t="n">
-        <v>210.2222660536941</v>
+        <v>114.4829747875999</v>
       </c>
       <c r="O43" t="n">
-        <v>145.0742342239729</v>
+        <v>39.42323441888101</v>
       </c>
       <c r="P43" t="n">
         <v>60.14232658241831</v>
@@ -30672,13 +30672,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U43" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="C44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="D44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="E44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="F44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="G44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="H44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="I44" t="n">
-        <v>242.1920463707887</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="J44" t="n">
-        <v>79.38441504035356</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="K44" t="n">
-        <v>10.62810875858561</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="L44" t="n">
-        <v>162.1100936606088</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="M44" t="n">
-        <v>250.1529948269972</v>
+        <v>246.3480823857374</v>
       </c>
       <c r="N44" t="n">
-        <v>250.1529948269972</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>250.1529948269972</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>250.1529948269972</v>
+        <v>180.6249573621751</v>
       </c>
       <c r="Q44" t="n">
-        <v>230.6035073537782</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="R44" t="n">
-        <v>250.1529948269972</v>
+        <v>239.3921512562441</v>
       </c>
       <c r="S44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="T44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="U44" t="n">
         <v>250.1529948269971</v>
       </c>
       <c r="V44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="W44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="X44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="Y44" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
     </row>
     <row r="45">
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>165.6486656402383</v>
+        <v>148.761012594616</v>
       </c>
       <c r="H45" t="n">
         <v>125.8939924814591</v>
@@ -30809,7 +30809,7 @@
         <v>122.422560448506</v>
       </c>
       <c r="N45" t="n">
-        <v>107.9066134679088</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>126.09543989585</v>
@@ -30821,7 +30821,7 @@
         <v>145.0940204505216</v>
       </c>
       <c r="R45" t="n">
-        <v>135.7385435371774</v>
+        <v>165.2365855749133</v>
       </c>
       <c r="S45" t="n">
         <v>191.8955649522593</v>
@@ -30836,7 +30836,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30873,16 +30873,16 @@
         <v>165.9467011478387</v>
       </c>
       <c r="I46" t="n">
-        <v>245.5258314670718</v>
+        <v>165.2666490039705</v>
       </c>
       <c r="J46" t="n">
-        <v>121.2121579575505</v>
+        <v>143.0084423346753</v>
       </c>
       <c r="K46" t="n">
-        <v>137.7981397517309</v>
+        <v>171.9528090723337</v>
       </c>
       <c r="L46" t="n">
-        <v>34.19696075465806</v>
+        <v>139.4805673535853</v>
       </c>
       <c r="M46" t="n">
         <v>143.0474437998775</v>
@@ -30891,16 +30891,16 @@
         <v>129.9630835905929</v>
       </c>
       <c r="O46" t="n">
-        <v>39.42323441888101</v>
+        <v>145.0742342239729</v>
       </c>
       <c r="P46" t="n">
-        <v>60.14232658241831</v>
+        <v>147.6265796099169</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.3688647731046</v>
+        <v>170.7111018018876</v>
       </c>
       <c r="R46" t="n">
-        <v>204.0484816844984</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="S46" t="n">
         <v>235.6777742193615</v>
@@ -30909,13 +30909,13 @@
         <v>223.8203341576757</v>
       </c>
       <c r="U46" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W46" t="n">
-        <v>250.1529948269972</v>
+        <v>250.1529948269971</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3760524526216867</v>
+        <v>0.3760524526216857</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85124718041185</v>
+        <v>3.85124718041184</v>
       </c>
       <c r="I11" t="n">
-        <v>14.49776217969759</v>
+        <v>14.49776217969755</v>
       </c>
       <c r="J11" t="n">
-        <v>31.91698185069991</v>
+        <v>31.91698185069983</v>
       </c>
       <c r="K11" t="n">
-        <v>47.83528217017592</v>
+        <v>47.83528217017579</v>
       </c>
       <c r="L11" t="n">
-        <v>59.34389741709687</v>
+        <v>59.34389741709673</v>
       </c>
       <c r="M11" t="n">
-        <v>66.03152022140779</v>
+        <v>66.03152022140763</v>
       </c>
       <c r="N11" t="n">
-        <v>67.09997925241916</v>
+        <v>67.099979252419</v>
       </c>
       <c r="O11" t="n">
-        <v>63.36060767666226</v>
+        <v>63.36060767666211</v>
       </c>
       <c r="P11" t="n">
-        <v>54.07681275256436</v>
+        <v>54.07681275256423</v>
       </c>
       <c r="Q11" t="n">
-        <v>40.60943429305019</v>
+        <v>40.60943429305009</v>
       </c>
       <c r="R11" t="n">
-        <v>23.62220487699705</v>
+        <v>23.62220487699699</v>
       </c>
       <c r="S11" t="n">
-        <v>8.569295264116693</v>
+        <v>8.569295264116672</v>
       </c>
       <c r="T11" t="n">
-        <v>1.646169611351434</v>
+        <v>1.64616961135143</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03008419620973493</v>
+        <v>0.03008419620973486</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2012058004758394</v>
+        <v>0.2012058004758389</v>
       </c>
       <c r="H12" t="n">
-        <v>1.943224441437712</v>
+        <v>1.943224441437708</v>
       </c>
       <c r="I12" t="n">
-        <v>6.92748041111991</v>
+        <v>6.927480411119893</v>
       </c>
       <c r="J12" t="n">
-        <v>19.00953573706165</v>
+        <v>19.00953573706161</v>
       </c>
       <c r="K12" t="n">
-        <v>32.49032436894289</v>
+        <v>32.49032436894282</v>
       </c>
       <c r="L12" t="n">
-        <v>43.68725066910715</v>
+        <v>43.68725066910704</v>
       </c>
       <c r="M12" t="n">
-        <v>50.98096093635632</v>
+        <v>50.98096093635619</v>
       </c>
       <c r="N12" t="n">
-        <v>52.3302752737579</v>
+        <v>52.33027527375777</v>
       </c>
       <c r="O12" t="n">
-        <v>47.87197832637219</v>
+        <v>47.87197832637207</v>
       </c>
       <c r="P12" t="n">
-        <v>38.42148307507498</v>
+        <v>38.42148307507489</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.68374393442469</v>
+        <v>25.68374393442463</v>
       </c>
       <c r="R12" t="n">
-        <v>12.49240926112273</v>
+        <v>12.4924092611227</v>
       </c>
       <c r="S12" t="n">
-        <v>3.737309495680611</v>
+        <v>3.737309495680602</v>
       </c>
       <c r="T12" t="n">
-        <v>0.811000572970598</v>
+        <v>0.811000572970596</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01323722371551576</v>
+        <v>0.01323722371551572</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1686841841780477</v>
+        <v>0.1686841841780473</v>
       </c>
       <c r="H13" t="n">
-        <v>1.499755746601189</v>
+        <v>1.499755746601185</v>
       </c>
       <c r="I13" t="n">
-        <v>5.072793466008926</v>
+        <v>5.072793466008914</v>
       </c>
       <c r="J13" t="n">
-        <v>11.92597182138797</v>
+        <v>11.92597182138794</v>
       </c>
       <c r="K13" t="n">
-        <v>19.59803521632226</v>
+        <v>19.59803521632221</v>
       </c>
       <c r="L13" t="n">
-        <v>25.07873770952538</v>
+        <v>25.07873770952532</v>
       </c>
       <c r="M13" t="n">
-        <v>26.44201261620069</v>
+        <v>26.44201261620062</v>
       </c>
       <c r="N13" t="n">
-        <v>25.81328065699162</v>
+        <v>25.81328065699156</v>
       </c>
       <c r="O13" t="n">
-        <v>23.84274268727533</v>
+        <v>23.84274268727527</v>
       </c>
       <c r="P13" t="n">
-        <v>20.40158533004314</v>
+        <v>20.40158533004309</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.12500018603634</v>
+        <v>14.1250001860363</v>
       </c>
       <c r="R13" t="n">
-        <v>7.584654317678396</v>
+        <v>7.584654317678378</v>
       </c>
       <c r="S13" t="n">
-        <v>2.939705282448339</v>
+        <v>2.939705282448332</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7207415142152944</v>
+        <v>0.7207415142152926</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009200955500620793</v>
+        <v>0.009200955500620771</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3760524526216857</v>
+        <v>0.3760524526216867</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85124718041184</v>
+        <v>3.85124718041185</v>
       </c>
       <c r="I14" t="n">
-        <v>14.49776217969755</v>
+        <v>14.49776217969759</v>
       </c>
       <c r="J14" t="n">
-        <v>31.91698185069983</v>
+        <v>31.91698185069991</v>
       </c>
       <c r="K14" t="n">
-        <v>47.83528217017579</v>
+        <v>47.83528217017592</v>
       </c>
       <c r="L14" t="n">
-        <v>59.34389741709673</v>
+        <v>59.34389741709687</v>
       </c>
       <c r="M14" t="n">
-        <v>66.03152022140763</v>
+        <v>66.03152022140779</v>
       </c>
       <c r="N14" t="n">
-        <v>67.099979252419</v>
+        <v>67.09997925241916</v>
       </c>
       <c r="O14" t="n">
-        <v>63.36060767666211</v>
+        <v>63.36060767666226</v>
       </c>
       <c r="P14" t="n">
-        <v>54.07681275256423</v>
+        <v>54.07681275256436</v>
       </c>
       <c r="Q14" t="n">
-        <v>40.60943429305009</v>
+        <v>40.60943429305019</v>
       </c>
       <c r="R14" t="n">
-        <v>23.62220487699699</v>
+        <v>23.62220487699705</v>
       </c>
       <c r="S14" t="n">
-        <v>8.569295264116672</v>
+        <v>8.569295264116693</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64616961135143</v>
+        <v>1.646169611351434</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03008419620973486</v>
+        <v>0.03008419620973493</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2012058004758389</v>
+        <v>0.2012058004758394</v>
       </c>
       <c r="H15" t="n">
-        <v>1.943224441437708</v>
+        <v>1.943224441437712</v>
       </c>
       <c r="I15" t="n">
-        <v>6.927480411119893</v>
+        <v>6.92748041111991</v>
       </c>
       <c r="J15" t="n">
-        <v>19.00953573706161</v>
+        <v>19.00953573706165</v>
       </c>
       <c r="K15" t="n">
-        <v>32.49032436894282</v>
+        <v>32.49032436894289</v>
       </c>
       <c r="L15" t="n">
-        <v>43.68725066910704</v>
+        <v>43.68725066910715</v>
       </c>
       <c r="M15" t="n">
-        <v>50.98096093635619</v>
+        <v>50.98096093635632</v>
       </c>
       <c r="N15" t="n">
-        <v>52.33027527375777</v>
+        <v>52.3302752737579</v>
       </c>
       <c r="O15" t="n">
-        <v>47.87197832637207</v>
+        <v>47.87197832637219</v>
       </c>
       <c r="P15" t="n">
-        <v>38.42148307507489</v>
+        <v>38.42148307507498</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.68374393442463</v>
+        <v>25.68374393442469</v>
       </c>
       <c r="R15" t="n">
-        <v>12.4924092611227</v>
+        <v>12.49240926112273</v>
       </c>
       <c r="S15" t="n">
-        <v>3.737309495680602</v>
+        <v>3.737309495680611</v>
       </c>
       <c r="T15" t="n">
-        <v>0.811000572970596</v>
+        <v>0.811000572970598</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01323722371551572</v>
+        <v>0.01323722371551576</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1686841841780473</v>
+        <v>0.1686841841780477</v>
       </c>
       <c r="H16" t="n">
-        <v>1.499755746601185</v>
+        <v>1.499755746601189</v>
       </c>
       <c r="I16" t="n">
-        <v>5.072793466008914</v>
+        <v>5.072793466008926</v>
       </c>
       <c r="J16" t="n">
-        <v>11.92597182138794</v>
+        <v>11.92597182138797</v>
       </c>
       <c r="K16" t="n">
-        <v>19.59803521632221</v>
+        <v>19.59803521632226</v>
       </c>
       <c r="L16" t="n">
-        <v>25.07873770952532</v>
+        <v>25.07873770952538</v>
       </c>
       <c r="M16" t="n">
-        <v>26.44201261620062</v>
+        <v>26.44201261620069</v>
       </c>
       <c r="N16" t="n">
-        <v>25.81328065699156</v>
+        <v>25.81328065699162</v>
       </c>
       <c r="O16" t="n">
-        <v>23.84274268727527</v>
+        <v>23.84274268727533</v>
       </c>
       <c r="P16" t="n">
-        <v>20.40158533004309</v>
+        <v>20.40158533004314</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.1250001860363</v>
+        <v>14.12500018603634</v>
       </c>
       <c r="R16" t="n">
-        <v>7.584654317678378</v>
+        <v>7.584654317678396</v>
       </c>
       <c r="S16" t="n">
-        <v>2.939705282448332</v>
+        <v>2.939705282448339</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7207415142152926</v>
+        <v>0.7207415142152944</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009200955500620771</v>
+        <v>0.009200955500620793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -35407,37 +35407,37 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>36.4771652981366</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>18.1656793831422</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>12.14881928540558</v>
       </c>
       <c r="R11" t="n">
-        <v>28.62827579144246</v>
+        <v>28.62827579144241</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.836062181357358</v>
+        <v>2.836062181357354</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -35462,19 +35462,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>27.16630779553464</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>27.16630779553456</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35556,10 +35556,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>28.73066939180353</v>
+        <v>9.243842855741054</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,16 +35586,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.38770528549558</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.61585281231831</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -35607,7 +35607,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3.516731561751442</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -35644,37 +35644,37 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>42.49402539587322</v>
+        <v>36.47716529813665</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>10.44530265412887</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>14.79823482668671</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>29.39930720046328</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.49402539587322</v>
+        <v>18.16567938314196</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="R14" t="n">
-        <v>28.62827579144241</v>
+        <v>28.62827579144252</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.836062181357354</v>
+        <v>2.836062181357415</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4224687692973757</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35717,7 +35717,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>27.99643864314953</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>35.69724240437582</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>33.5406220177346</v>
+        <v>33.54062201773467</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>8.123272530523423</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35796,13 +35796,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="I16" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.564781512233547</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35814,7 +35814,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>32.24740095355495</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.38770528549565</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35847,7 +35847,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.294914155825609</v>
       </c>
     </row>
     <row r="17">
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35896,28 +35896,28 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>23.76041486023312</v>
       </c>
       <c r="T17" t="n">
-        <v>40.77709507684804</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,22 +36115,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>23.76041486023312</v>
       </c>
       <c r="J20" t="n">
-        <v>40.77709507684805</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="M20" t="n">
-        <v>42.49402539587322</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>42.49402539587316</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36145,16 +36145,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>42.49402539587322</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,46 +36352,46 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>77.40126617658959</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>57.25726207405192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>77.40126617658959</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>77.40126617658959</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>74.27394229066677</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>77.40126617658959</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>157.4707519241425</v>
       </c>
       <c r="K26" t="n">
-        <v>18.16595564470662</v>
+        <v>226.2270582059104</v>
       </c>
       <c r="L26" t="n">
-        <v>279.2085051469004</v>
+        <v>279.2085051469003</v>
       </c>
       <c r="M26" t="n">
         <v>76.29388538749055</v>
@@ -36607,22 +36607,22 @@
         <v>307.47201564804</v>
       </c>
       <c r="O26" t="n">
-        <v>266.2544741649596</v>
+        <v>237.9151960372943</v>
       </c>
       <c r="P26" t="n">
-        <v>217.3532877907524</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.5721275484382</v>
+        <v>138.3091932792397</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>8.639355450553712</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>14.25504217585941</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36662,7 +36662,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>34.70783856483252</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>34.70783856483278</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36741,10 +36741,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>68.1406360207291</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.6756364790584</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>97.37459961091078</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.44167288887645</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,34 +36832,34 @@
         <v>157.4707519241425</v>
       </c>
       <c r="K29" t="n">
-        <v>226.2270582059105</v>
+        <v>171.8198231869481</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>279.2085051469003</v>
       </c>
       <c r="M29" t="n">
-        <v>64.23998855093107</v>
+        <v>76.29388538749055</v>
       </c>
       <c r="N29" t="n">
         <v>307.47201564804</v>
       </c>
       <c r="O29" t="n">
-        <v>266.2544741649596</v>
+        <v>29.39930720046343</v>
       </c>
       <c r="P29" t="n">
-        <v>217.3532877907524</v>
+        <v>217.3532877907523</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.8317735583362</v>
+        <v>143.8317735583361</v>
       </c>
       <c r="R29" t="n">
-        <v>40.0472557859446</v>
+        <v>40.04725578594451</v>
       </c>
       <c r="S29" t="n">
-        <v>8.639355450553797</v>
+        <v>8.639355450553712</v>
       </c>
       <c r="T29" t="n">
-        <v>14.2550421758595</v>
+        <v>14.25504217585941</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>34.70783856483278</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>34.70783856483252</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.0206856617739</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>115.8162724997875</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>14.79558683801339</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,37 +37066,37 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>157.4707519241425</v>
       </c>
       <c r="K32" t="n">
-        <v>53.71431270223754</v>
+        <v>4.411219208859827</v>
       </c>
       <c r="L32" t="n">
         <v>279.2085051469004</v>
       </c>
       <c r="M32" t="n">
-        <v>313.1490523519867</v>
+        <v>313.1490523519866</v>
       </c>
       <c r="N32" t="n">
         <v>307.47201564804</v>
       </c>
       <c r="O32" t="n">
-        <v>266.2544741649596</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>217.3532877907524</v>
+        <v>217.3532877907523</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>143.8317735583361</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>8.639355450553797</v>
+        <v>8.639355450553769</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>14.25504217585947</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>21.23695773436203</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37175,7 +37175,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>21.81810712097926</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -37187,10 +37187,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>12.88973144385334</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.47088083047049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -37221,13 +37221,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.58851796052562</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>43.05036179412699</v>
+        <v>101.6040469478323</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37251,10 +37251,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.177392745134635</v>
+        <v>1.177392745134606</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>13.03483280682042</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.960948456208344</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>170.7685797866435</v>
       </c>
       <c r="K35" t="n">
-        <v>239.5248860684115</v>
+        <v>239.5248860684114</v>
       </c>
       <c r="L35" t="n">
-        <v>21.8618659807096</v>
+        <v>64.15696038418623</v>
       </c>
       <c r="M35" t="n">
-        <v>218.8417506719468</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>320.7698435105411</v>
+        <v>37.36903649157529</v>
       </c>
       <c r="O35" t="n">
-        <v>279.5523020274606</v>
+        <v>279.5523020274605</v>
       </c>
       <c r="P35" t="n">
-        <v>196.9811837318927</v>
+        <v>218.2343803557802</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>157.1296014208371</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.34508364844555</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>21.93718331305475</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>27.55287003836045</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37358,7 +37358,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16.88765304562234</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>16.88765304562241</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>80.25918246310151</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>80.25918246310133</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>170.7685797866435</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>239.5248860684115</v>
       </c>
       <c r="L38" t="n">
-        <v>180.415666975756</v>
+        <v>292.5063330094014</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6419677732277</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>320.7698435105411</v>
+        <v>285.418095277289</v>
       </c>
       <c r="O38" t="n">
-        <v>212.2923945074311</v>
+        <v>269.7644503759986</v>
       </c>
       <c r="P38" t="n">
-        <v>230.6511156532534</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>19.54948747321891</v>
       </c>
       <c r="R38" t="n">
-        <v>10.76084357075302</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>16.88765304562239</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>16.88765304562234</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>19.01392103151821</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>19.67944871296688</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37722,10 +37722,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.10451314249877</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>14.47522060763567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37740,10 +37740,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>28.23353941875456</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>33.01172201282867</v>
       </c>
     </row>
     <row r="41">
@@ -37774,43 +37774,43 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.960948456208458</v>
+        <v>7.960948456208429</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>170.7685797866436</v>
       </c>
       <c r="K41" t="n">
         <v>239.5248860684115</v>
       </c>
       <c r="L41" t="n">
-        <v>21.86186598070962</v>
+        <v>292.5063330094014</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6419677732277</v>
+        <v>322.6419677732279</v>
       </c>
       <c r="N41" t="n">
-        <v>320.7698435105411</v>
+        <v>108.5001953280076</v>
       </c>
       <c r="O41" t="n">
-        <v>279.5523020274606</v>
+        <v>32.7937845692016</v>
       </c>
       <c r="P41" t="n">
-        <v>85.22001817440345</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>53.34508364844564</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>21.93718331305483</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>27.55287003836053</v>
       </c>
       <c r="U41" t="n">
-        <v>1.063836518877537e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>16.88765304562234</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.963807197091981</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37889,7 +37889,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>12.92384584853033</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>80.25918246310131</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>80.25918246310127</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.960948456208344</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>170.7685797866435</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>239.5248860684114</v>
       </c>
       <c r="L44" t="n">
-        <v>204.4634318430131</v>
+        <v>292.5063330094014</v>
       </c>
       <c r="M44" t="n">
-        <v>181.8442420345256</v>
+        <v>322.6419677732279</v>
       </c>
       <c r="N44" t="n">
-        <v>320.7698435105411</v>
+        <v>8.110154924354838</v>
       </c>
       <c r="O44" t="n">
-        <v>279.5523020274606</v>
+        <v>29.39930720046343</v>
       </c>
       <c r="P44" t="n">
-        <v>230.6511156532534</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>157.1296014208371</v>
       </c>
       <c r="R44" t="n">
-        <v>10.76084357075305</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.93718331305486</v>
+        <v>21.93718331305475</v>
       </c>
       <c r="T44" t="n">
-        <v>27.55287003836056</v>
+        <v>27.55287003836045</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38084,7 +38084,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>16.88765304562231</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>16.88765304562242</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>80.25918246310127</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>34.1546693206028</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.10451314249869</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
